--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4502,28 +4502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4088.582919492329</v>
+        <v>4283.541937110587</v>
       </c>
       <c r="AB2" t="n">
-        <v>5594.179525997865</v>
+        <v>5860.931054888011</v>
       </c>
       <c r="AC2" t="n">
-        <v>5060.278883516694</v>
+        <v>5301.572020877677</v>
       </c>
       <c r="AD2" t="n">
-        <v>4088582.919492329</v>
+        <v>4283541.937110587</v>
       </c>
       <c r="AE2" t="n">
-        <v>5594179.525997865</v>
+        <v>5860931.054888011</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.862152907441767e-07</v>
+        <v>8.996255860555856e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.25578703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>5060278.883516693</v>
+        <v>5301572.020877677</v>
       </c>
     </row>
     <row r="3">
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2391.835530672233</v>
+        <v>2525.901886076672</v>
       </c>
       <c r="AB3" t="n">
-        <v>3272.614893402297</v>
+        <v>3456.050395456831</v>
       </c>
       <c r="AC3" t="n">
-        <v>2960.281121119709</v>
+        <v>3126.209796311496</v>
       </c>
       <c r="AD3" t="n">
-        <v>2391835.530672233</v>
+        <v>2525901.886076672</v>
       </c>
       <c r="AE3" t="n">
-        <v>3272614.893402297</v>
+        <v>3456050.395456831</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.883060704788485e-07</v>
+        <v>1.27354643884689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.07754629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>2960281.121119709</v>
+        <v>3126209.796311496</v>
       </c>
     </row>
     <row r="4">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2013.874024648087</v>
+        <v>2135.830030784869</v>
       </c>
       <c r="AB4" t="n">
-        <v>2755.471286375054</v>
+        <v>2922.336874290666</v>
       </c>
       <c r="AC4" t="n">
-        <v>2492.492974131658</v>
+        <v>2643.433144533928</v>
       </c>
       <c r="AD4" t="n">
-        <v>2013874.024648087</v>
+        <v>2135830.030784869</v>
       </c>
       <c r="AE4" t="n">
-        <v>2755471.286375054</v>
+        <v>2922336.874290666</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.679764740280942e-07</v>
+        <v>1.420957544274231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.78587962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>2492492.974131658</v>
+        <v>2643433.144533928</v>
       </c>
     </row>
     <row r="5">
@@ -4820,28 +4820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1845.735367627778</v>
+        <v>1967.606032909989</v>
       </c>
       <c r="AB5" t="n">
-        <v>2525.416558085839</v>
+        <v>2692.165378879253</v>
       </c>
       <c r="AC5" t="n">
-        <v>2284.394346226527</v>
+        <v>2435.228893596857</v>
       </c>
       <c r="AD5" t="n">
-        <v>1845735.367627779</v>
+        <v>1967606.032909989</v>
       </c>
       <c r="AE5" t="n">
-        <v>2525416.558085839</v>
+        <v>2692165.378879253</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.108840018459805e-07</v>
+        <v>1.500347704547228e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.74131944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>2284394.346226527</v>
+        <v>2435228.893596857</v>
       </c>
     </row>
     <row r="6">
@@ -4926,28 +4926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1753.926545797487</v>
+        <v>1863.60169997457</v>
       </c>
       <c r="AB6" t="n">
-        <v>2399.799677738272</v>
+        <v>2549.862062209673</v>
       </c>
       <c r="AC6" t="n">
-        <v>2170.766164634932</v>
+        <v>2306.506805746262</v>
       </c>
       <c r="AD6" t="n">
-        <v>1753926.545797487</v>
+        <v>1863601.699974569</v>
       </c>
       <c r="AE6" t="n">
-        <v>2399799.677738272</v>
+        <v>2549862.062209673</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.374583091603631e-07</v>
+        <v>1.54951713061594e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.14525462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>2170766.164634932</v>
+        <v>2306506.805746262</v>
       </c>
     </row>
     <row r="7">
@@ -5032,28 +5032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1679.095706880385</v>
+        <v>1788.856112403488</v>
       </c>
       <c r="AB7" t="n">
-        <v>2297.412822628275</v>
+        <v>2447.591851752326</v>
       </c>
       <c r="AC7" t="n">
-        <v>2078.15096727578</v>
+        <v>2213.997120637822</v>
       </c>
       <c r="AD7" t="n">
-        <v>1679095.706880385</v>
+        <v>1788856.112403488</v>
       </c>
       <c r="AE7" t="n">
-        <v>2297412.822628275</v>
+        <v>2447591.851752325</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.553145630870234e-07</v>
+        <v>1.582555875405192e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.76620370370371</v>
       </c>
       <c r="AH7" t="n">
-        <v>2078150.96727578</v>
+        <v>2213997.120637822</v>
       </c>
     </row>
     <row r="8">
@@ -5138,28 +5138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1626.380245074579</v>
+        <v>1735.97005839709</v>
       </c>
       <c r="AB8" t="n">
-        <v>2225.285202143531</v>
+        <v>2375.230819492735</v>
       </c>
       <c r="AC8" t="n">
-        <v>2012.907105658349</v>
+        <v>2148.54212373774</v>
       </c>
       <c r="AD8" t="n">
-        <v>1626380.245074579</v>
+        <v>1735970.05839709</v>
       </c>
       <c r="AE8" t="n">
-        <v>2225285.202143531</v>
+        <v>2375230.819492735</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.693369742588418e-07</v>
+        <v>1.608501007342634e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.47974537037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>2012907.105658349</v>
+        <v>2148542.12373774</v>
       </c>
     </row>
     <row r="9">
@@ -5244,28 +5244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1580.570800861144</v>
+        <v>1690.160614183656</v>
       </c>
       <c r="AB9" t="n">
-        <v>2162.606699600664</v>
+        <v>2312.552316949868</v>
       </c>
       <c r="AC9" t="n">
-        <v>1956.210551428343</v>
+        <v>2091.845569507734</v>
       </c>
       <c r="AD9" t="n">
-        <v>1580570.800861144</v>
+        <v>1690160.614183655</v>
       </c>
       <c r="AE9" t="n">
-        <v>2162606.699600664</v>
+        <v>2312552.316949868</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.803133185843475e-07</v>
+        <v>1.628810118110145e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.26273148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>1956210.551428343</v>
+        <v>2091845.569507734</v>
       </c>
     </row>
     <row r="10">
@@ -5350,28 +5350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1546.174365337116</v>
+        <v>1643.739259755092</v>
       </c>
       <c r="AB10" t="n">
-        <v>2115.543979053051</v>
+        <v>2249.036571855088</v>
       </c>
       <c r="AC10" t="n">
-        <v>1913.63943087685</v>
+        <v>2034.391677979892</v>
       </c>
       <c r="AD10" t="n">
-        <v>1546174.365337116</v>
+        <v>1643739.259755092</v>
       </c>
       <c r="AE10" t="n">
-        <v>2115543.979053051</v>
+        <v>2249036.571855088</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.878234489123251e-07</v>
+        <v>1.642705825477389e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.11516203703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1913639.43087685</v>
+        <v>2034391.677979892</v>
       </c>
     </row>
     <row r="11">
@@ -5456,28 +5456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1503.909367083829</v>
+        <v>1613.584431752361</v>
       </c>
       <c r="AB11" t="n">
-        <v>2057.715143842778</v>
+        <v>2207.777405844631</v>
       </c>
       <c r="AC11" t="n">
-        <v>1861.329698535765</v>
+        <v>1997.070228865869</v>
       </c>
       <c r="AD11" t="n">
-        <v>1503909.367083829</v>
+        <v>1613584.431752361</v>
       </c>
       <c r="AE11" t="n">
-        <v>2057715.143842778</v>
+        <v>2207777.405844631</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.942306929683621e-07</v>
+        <v>1.654560904490004e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.99363425925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>1861329.698535765</v>
+        <v>1997070.228865869</v>
       </c>
     </row>
     <row r="12">
@@ -5562,28 +5562,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1475.589125730662</v>
+        <v>1585.264190399194</v>
       </c>
       <c r="AB12" t="n">
-        <v>2018.966140222504</v>
+        <v>2169.028402224357</v>
       </c>
       <c r="AC12" t="n">
-        <v>1826.278845436443</v>
+        <v>1962.019375766546</v>
       </c>
       <c r="AD12" t="n">
-        <v>1475589.125730662</v>
+        <v>1585264.190399194</v>
       </c>
       <c r="AE12" t="n">
-        <v>2018966.140222505</v>
+        <v>2169028.402224357</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.992199403890465e-07</v>
+        <v>1.663792318475236e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.89814814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>1826278.845436443</v>
+        <v>1962019.375766546</v>
       </c>
     </row>
     <row r="13">
@@ -5668,28 +5668,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1439.069931363525</v>
+        <v>1548.744996032057</v>
       </c>
       <c r="AB13" t="n">
-        <v>1968.998967376239</v>
+        <v>2119.061229378091</v>
       </c>
       <c r="AC13" t="n">
-        <v>1781.080469437257</v>
+        <v>1916.820999767361</v>
       </c>
       <c r="AD13" t="n">
-        <v>1439069.931363525</v>
+        <v>1548744.996032057</v>
       </c>
       <c r="AE13" t="n">
-        <v>1968998.967376239</v>
+        <v>2119061.229378092</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.046293349609466e-07</v>
+        <v>1.673801114690804e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.79976851851852</v>
       </c>
       <c r="AH13" t="n">
-        <v>1781080.469437257</v>
+        <v>1916820.999767361</v>
       </c>
     </row>
     <row r="14">
@@ -5774,28 +5774,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1414.244632729961</v>
+        <v>1523.919697398493</v>
       </c>
       <c r="AB14" t="n">
-        <v>1935.031898570918</v>
+        <v>2085.094160572771</v>
       </c>
       <c r="AC14" t="n">
-        <v>1750.355170005636</v>
+        <v>1886.095700335739</v>
       </c>
       <c r="AD14" t="n">
-        <v>1414244.632729961</v>
+        <v>1523919.697398493</v>
       </c>
       <c r="AE14" t="n">
-        <v>1935031.898570918</v>
+        <v>2085094.160572771</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.075703650194554e-07</v>
+        <v>1.679242790303151e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1750355.170005636</v>
+        <v>1886095.700335739</v>
       </c>
     </row>
     <row r="15">
@@ -5880,28 +5880,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1392.762035305566</v>
+        <v>1502.437099974098</v>
       </c>
       <c r="AB15" t="n">
-        <v>1905.63846102955</v>
+        <v>2055.700723031403</v>
       </c>
       <c r="AC15" t="n">
-        <v>1723.767000889268</v>
+        <v>1859.507531219371</v>
       </c>
       <c r="AD15" t="n">
-        <v>1392762.035305566</v>
+        <v>1502437.099974098</v>
       </c>
       <c r="AE15" t="n">
-        <v>1905638.46102955</v>
+        <v>2055700.723031403</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.105639134718659e-07</v>
+        <v>1.684781638694291e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.68981481481481</v>
       </c>
       <c r="AH15" t="n">
-        <v>1723767.000889268</v>
+        <v>1859507.531219371</v>
       </c>
     </row>
     <row r="16">
@@ -5986,28 +5986,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1386.619663031554</v>
+        <v>1496.294727700086</v>
       </c>
       <c r="AB16" t="n">
-        <v>1897.234196301908</v>
+        <v>2047.296458303761</v>
       </c>
       <c r="AC16" t="n">
-        <v>1716.164827391772</v>
+        <v>1851.905357721875</v>
       </c>
       <c r="AD16" t="n">
-        <v>1386619.663031554</v>
+        <v>1496294.727700087</v>
       </c>
       <c r="AE16" t="n">
-        <v>1897234.196301908</v>
+        <v>2047296.458303761</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.11404207774297e-07</v>
+        <v>1.686336403154961e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.6724537037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>1716164.827391772</v>
+        <v>1851905.357721875</v>
       </c>
     </row>
     <row r="17">
@@ -6092,28 +6092,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1391.950358981239</v>
+        <v>1501.625423649771</v>
       </c>
       <c r="AB17" t="n">
-        <v>1904.527889673975</v>
+        <v>2054.590151675828</v>
       </c>
       <c r="AC17" t="n">
-        <v>1722.762420905171</v>
+        <v>1858.502951235275</v>
       </c>
       <c r="AD17" t="n">
-        <v>1391950.358981239</v>
+        <v>1501625.423649771</v>
       </c>
       <c r="AE17" t="n">
-        <v>1904527.889673975</v>
+        <v>2054590.151675828</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.115092445621011e-07</v>
+        <v>1.686530748712545e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.6724537037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>1722762.420905171</v>
+        <v>1858502.951235275</v>
       </c>
     </row>
   </sheetData>
@@ -6389,28 +6389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3035.772447631578</v>
+        <v>3200.293825289026</v>
       </c>
       <c r="AB2" t="n">
-        <v>4153.677791677929</v>
+        <v>4378.78319875979</v>
       </c>
       <c r="AC2" t="n">
-        <v>3757.256612963425</v>
+        <v>3960.878275930808</v>
       </c>
       <c r="AD2" t="n">
-        <v>3035772.447631578</v>
+        <v>3200293.825289026</v>
       </c>
       <c r="AE2" t="n">
-        <v>4153677.791677929</v>
+        <v>4378783.198759791</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.75567186126068e-07</v>
+        <v>1.097119885420691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.31192129629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>3757256.612963425</v>
+        <v>3960878.275930808</v>
       </c>
     </row>
     <row r="3">
@@ -6495,28 +6495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1948.86865293183</v>
+        <v>2078.184145537148</v>
       </c>
       <c r="AB3" t="n">
-        <v>2666.528068958273</v>
+        <v>2843.463230937764</v>
       </c>
       <c r="AC3" t="n">
-        <v>2412.038372552544</v>
+        <v>2572.087091002772</v>
       </c>
       <c r="AD3" t="n">
-        <v>1948868.65293183</v>
+        <v>2078184.145537148</v>
       </c>
       <c r="AE3" t="n">
-        <v>2666528.068958273</v>
+        <v>2843463.230937764</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.619718506152638e-07</v>
+        <v>1.452435944216084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.63078703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>2412038.372552544</v>
+        <v>2572087.091002773</v>
       </c>
     </row>
     <row r="4">
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1680.466429801953</v>
+        <v>1798.018210274553</v>
       </c>
       <c r="AB4" t="n">
-        <v>2299.288306201591</v>
+        <v>2460.127838262747</v>
       </c>
       <c r="AC4" t="n">
-        <v>2079.847457329116</v>
+        <v>2225.336690190057</v>
       </c>
       <c r="AD4" t="n">
-        <v>1680466.429801953</v>
+        <v>1798018.210274553</v>
       </c>
       <c r="AE4" t="n">
-        <v>2299288.306201591</v>
+        <v>2460127.838262747</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.336325187765138e-07</v>
+        <v>1.589032237294231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.85706018518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>2079847.457329117</v>
+        <v>2225336.690190057</v>
       </c>
     </row>
     <row r="5">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1562.873601833265</v>
+        <v>1668.6617596817</v>
       </c>
       <c r="AB5" t="n">
-        <v>2138.392611145402</v>
+        <v>2283.136635757771</v>
       </c>
       <c r="AC5" t="n">
-        <v>1934.307421590564</v>
+        <v>2065.237279643442</v>
       </c>
       <c r="AD5" t="n">
-        <v>1562873.601833266</v>
+        <v>1668661.7596817</v>
       </c>
       <c r="AE5" t="n">
-        <v>2138392.611145402</v>
+        <v>2283136.635757771</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.711199039404733e-07</v>
+        <v>1.660488978934808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1934307.421590564</v>
+        <v>2065237.279643442</v>
       </c>
     </row>
     <row r="6">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1477.13343799939</v>
+        <v>1583.006847193846</v>
       </c>
       <c r="AB6" t="n">
-        <v>2021.079136398828</v>
+        <v>2165.939805663847</v>
       </c>
       <c r="AC6" t="n">
-        <v>1828.190180223307</v>
+        <v>1959.225550526898</v>
       </c>
       <c r="AD6" t="n">
-        <v>1477133.437999391</v>
+        <v>1583006.847193846</v>
       </c>
       <c r="AE6" t="n">
-        <v>2021079.136398828</v>
+        <v>2165939.805663846</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.94101300932292e-07</v>
+        <v>1.704295068375336e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.58101851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>1828190.180223307</v>
+        <v>1959225.550526898</v>
       </c>
     </row>
     <row r="7">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1417.925749257218</v>
+        <v>1523.628566251081</v>
       </c>
       <c r="AB7" t="n">
-        <v>1940.06856460291</v>
+        <v>2084.695822093081</v>
       </c>
       <c r="AC7" t="n">
-        <v>1754.911143700539</v>
+        <v>1885.735378721479</v>
       </c>
       <c r="AD7" t="n">
-        <v>1417925.749257218</v>
+        <v>1523628.566251081</v>
       </c>
       <c r="AE7" t="n">
-        <v>1940068.56460291</v>
+        <v>2084695.822093081</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.10400164047057e-07</v>
+        <v>1.735363216914718e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.26851851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>1754911.143700539</v>
+        <v>1885735.37872148</v>
       </c>
     </row>
     <row r="8">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1374.875031349794</v>
+        <v>1468.984817920083</v>
       </c>
       <c r="AB8" t="n">
-        <v>1881.164673098342</v>
+        <v>2009.929834914573</v>
       </c>
       <c r="AC8" t="n">
-        <v>1701.628956929036</v>
+        <v>1818.104952424566</v>
       </c>
       <c r="AD8" t="n">
-        <v>1374875.031349794</v>
+        <v>1468984.817920083</v>
       </c>
       <c r="AE8" t="n">
-        <v>1881164.673098342</v>
+        <v>2009929.834914573</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.21483390965097e-07</v>
+        <v>1.756489557921497e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.06018518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>1701628.956929036</v>
+        <v>1818104.952424566</v>
       </c>
     </row>
     <row r="9">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1319.282681659589</v>
+        <v>1425.070749999472</v>
       </c>
       <c r="AB9" t="n">
-        <v>1805.100767690828</v>
+        <v>1949.844669833648</v>
       </c>
       <c r="AC9" t="n">
-        <v>1632.824483897253</v>
+        <v>1763.754231168906</v>
       </c>
       <c r="AD9" t="n">
-        <v>1319282.681659589</v>
+        <v>1425070.749999472</v>
       </c>
       <c r="AE9" t="n">
-        <v>1805100.767690828</v>
+        <v>1949844.669833648</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.29904470241059e-07</v>
+        <v>1.772541434666844e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.90393518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>1632824.483897253</v>
+        <v>1763754.231168906</v>
       </c>
     </row>
     <row r="10">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1284.271003973588</v>
+        <v>1390.059072313472</v>
       </c>
       <c r="AB10" t="n">
-        <v>1757.196245674635</v>
+        <v>1901.940147817456</v>
       </c>
       <c r="AC10" t="n">
-        <v>1589.491902227867</v>
+        <v>1720.42164949952</v>
       </c>
       <c r="AD10" t="n">
-        <v>1284271.003973588</v>
+        <v>1390059.072313472</v>
       </c>
       <c r="AE10" t="n">
-        <v>1757196.245674635</v>
+        <v>1901940.147817456</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.369673109241239e-07</v>
+        <v>1.786004299033909e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.77662037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>1589491.902227867</v>
+        <v>1720421.64949952</v>
       </c>
     </row>
     <row r="11">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1254.409572088476</v>
+        <v>1360.197640428359</v>
       </c>
       <c r="AB11" t="n">
-        <v>1716.338517176027</v>
+        <v>1861.082419318847</v>
       </c>
       <c r="AC11" t="n">
-        <v>1552.533577992985</v>
+        <v>1683.463325264637</v>
       </c>
       <c r="AD11" t="n">
-        <v>1254409.572088476</v>
+        <v>1360197.640428359</v>
       </c>
       <c r="AE11" t="n">
-        <v>1716338.517176027</v>
+        <v>1861082.419318847</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.415309925962581e-07</v>
+        <v>1.794703380624936e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.69560185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1552533.577992985</v>
+        <v>1683463.325264637</v>
       </c>
     </row>
     <row r="12">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1253.887251458467</v>
+        <v>1359.675319798351</v>
       </c>
       <c r="AB12" t="n">
-        <v>1715.623855046889</v>
+        <v>1860.367757189709</v>
       </c>
       <c r="AC12" t="n">
-        <v>1551.887122214417</v>
+        <v>1682.816869486069</v>
       </c>
       <c r="AD12" t="n">
-        <v>1253887.251458467</v>
+        <v>1359675.319798351</v>
       </c>
       <c r="AE12" t="n">
-        <v>1715623.855046889</v>
+        <v>1860367.757189709</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.419656289459851e-07</v>
+        <v>1.795531864585986e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.68981481481481</v>
       </c>
       <c r="AH12" t="n">
-        <v>1551887.122214417</v>
+        <v>1682816.869486069</v>
       </c>
     </row>
   </sheetData>
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1362.016813350735</v>
+        <v>1466.565986916623</v>
       </c>
       <c r="AB2" t="n">
-        <v>1863.571491967487</v>
+        <v>2006.620283624347</v>
       </c>
       <c r="AC2" t="n">
-        <v>1685.714844313125</v>
+        <v>1815.111260064495</v>
       </c>
       <c r="AD2" t="n">
-        <v>1362016.813350735</v>
+        <v>1466565.986916623</v>
       </c>
       <c r="AE2" t="n">
-        <v>1863571.491967486</v>
+        <v>2006620.283624347</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.578275650382392e-07</v>
+        <v>1.826948217540582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.44849537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1685714.844313125</v>
+        <v>1815111.260064495</v>
       </c>
     </row>
     <row r="3">
@@ -7852,28 +7852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1040.826792047049</v>
+        <v>1134.997774467767</v>
       </c>
       <c r="AB3" t="n">
-        <v>1424.105134916106</v>
+        <v>1552.954027594665</v>
       </c>
       <c r="AC3" t="n">
-        <v>1288.190539583823</v>
+        <v>1404.742274785696</v>
       </c>
       <c r="AD3" t="n">
-        <v>1040826.792047049</v>
+        <v>1134997.774467767</v>
       </c>
       <c r="AE3" t="n">
-        <v>1424105.134916106</v>
+        <v>1552954.027594665</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.866532594344413e-07</v>
+        <v>2.10131323254226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1288190.539583823</v>
+        <v>1404742.274785696</v>
       </c>
     </row>
     <row r="4">
@@ -7958,28 +7958,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>936.7462782484838</v>
+        <v>1020.453907686562</v>
       </c>
       <c r="AB4" t="n">
-        <v>1281.697584228707</v>
+        <v>1396.230055745863</v>
       </c>
       <c r="AC4" t="n">
-        <v>1159.374165663776</v>
+        <v>1262.975818846668</v>
       </c>
       <c r="AD4" t="n">
-        <v>936746.2782484838</v>
+        <v>1020453.907686562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1281697.584228707</v>
+        <v>1396230.055745863</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.028119977065972e-06</v>
+        <v>2.189626489135741e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.06018518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>1159374.165663776</v>
+        <v>1262975.818846668</v>
       </c>
     </row>
     <row r="5">
@@ -8064,28 +8064,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>938.9907655612845</v>
+        <v>1022.698394999363</v>
       </c>
       <c r="AB5" t="n">
-        <v>1284.768590789872</v>
+        <v>1399.301062307028</v>
       </c>
       <c r="AC5" t="n">
-        <v>1162.152079668928</v>
+        <v>1265.75373285182</v>
       </c>
       <c r="AD5" t="n">
-        <v>938990.7655612845</v>
+        <v>1022698.394999363</v>
       </c>
       <c r="AE5" t="n">
-        <v>1284768.590789872</v>
+        <v>1399301.062307028</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.028604967915463e-06</v>
+        <v>2.19065939272163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.05439814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>1162152.079668928</v>
+        <v>1265753.73285182</v>
       </c>
     </row>
   </sheetData>
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1851.236371839691</v>
+        <v>1982.812583539523</v>
       </c>
       <c r="AB2" t="n">
-        <v>2532.943274735755</v>
+        <v>2712.971652316248</v>
       </c>
       <c r="AC2" t="n">
-        <v>2291.202723603188</v>
+        <v>2454.049445498814</v>
       </c>
       <c r="AD2" t="n">
-        <v>1851236.371839691</v>
+        <v>1982812.583539523</v>
       </c>
       <c r="AE2" t="n">
-        <v>2532943.274735755</v>
+        <v>2712971.652316249</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.454924029229889e-07</v>
+        <v>1.513607318261328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.51157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>2291202.723603188</v>
+        <v>2454049.445498814</v>
       </c>
     </row>
     <row r="3">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1347.680452361938</v>
+        <v>1457.31307196937</v>
       </c>
       <c r="AB3" t="n">
-        <v>1843.955850387006</v>
+        <v>1993.960037183717</v>
       </c>
       <c r="AC3" t="n">
-        <v>1667.97129203436</v>
+        <v>1803.659289775392</v>
       </c>
       <c r="AD3" t="n">
-        <v>1347680.452361938</v>
+        <v>1457313.07196937</v>
       </c>
       <c r="AE3" t="n">
-        <v>1843955.850387006</v>
+        <v>1993960.037183717</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.979663042209924e-07</v>
+        <v>1.823182052951621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.68923611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1667971.29203436</v>
+        <v>1803659.289775392</v>
       </c>
     </row>
     <row r="4">
@@ -8573,28 +8573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1196.147359365274</v>
+        <v>1294.893523781077</v>
       </c>
       <c r="AB4" t="n">
-        <v>1636.621587380723</v>
+        <v>1771.730445907741</v>
       </c>
       <c r="AC4" t="n">
-        <v>1480.424720093931</v>
+        <v>1602.638978789604</v>
       </c>
       <c r="AD4" t="n">
-        <v>1196147.359365274</v>
+        <v>1294893.523781077</v>
       </c>
       <c r="AE4" t="n">
-        <v>1636621.587380723</v>
+        <v>1771730.445907741</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.526573992852819e-07</v>
+        <v>1.934223884375336e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.61574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1480424.720093931</v>
+        <v>1602638.978789604</v>
       </c>
     </row>
     <row r="5">
@@ -8679,28 +8679,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1110.52510213429</v>
+        <v>1198.299560012444</v>
       </c>
       <c r="AB5" t="n">
-        <v>1519.469437649896</v>
+        <v>1639.566323254572</v>
       </c>
       <c r="AC5" t="n">
-        <v>1374.453407109339</v>
+        <v>1483.088414508942</v>
       </c>
       <c r="AD5" t="n">
-        <v>1110525.10213429</v>
+        <v>1198299.560012444</v>
       </c>
       <c r="AE5" t="n">
-        <v>1519469.437649896</v>
+        <v>1639566.323254572</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.813658744250732e-07</v>
+        <v>1.992512014337943e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.10069444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1374453.407109339</v>
+        <v>1483088.414508942</v>
       </c>
     </row>
     <row r="6">
@@ -8785,28 +8785,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1044.270818168685</v>
+        <v>1142.931641729916</v>
       </c>
       <c r="AB6" t="n">
-        <v>1428.817403395437</v>
+        <v>1563.809494800258</v>
       </c>
       <c r="AC6" t="n">
-        <v>1292.453075773196</v>
+        <v>1414.561711436932</v>
       </c>
       <c r="AD6" t="n">
-        <v>1044270.818168685</v>
+        <v>1142931.641729916</v>
       </c>
       <c r="AE6" t="n">
-        <v>1428817.403395437</v>
+        <v>1563809.494800258</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.967350580857697e-07</v>
+        <v>2.023716770782572e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.83738425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1292453.075773196</v>
+        <v>1414561.711436932</v>
       </c>
     </row>
     <row r="7">
@@ -8891,28 +8891,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1042.890154736038</v>
+        <v>1141.55097829727</v>
       </c>
       <c r="AB7" t="n">
-        <v>1426.928318776318</v>
+        <v>1561.920410181138</v>
       </c>
       <c r="AC7" t="n">
-        <v>1290.744282738779</v>
+        <v>1412.852918402514</v>
       </c>
       <c r="AD7" t="n">
-        <v>1042890.154736038</v>
+        <v>1141550.97829727</v>
       </c>
       <c r="AE7" t="n">
-        <v>1426928.318776318</v>
+        <v>1561920.410181138</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.977790026363077e-07</v>
+        <v>2.025836339144849e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.82002314814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>1290744.282738779</v>
+        <v>1412852.918402514</v>
       </c>
     </row>
   </sheetData>
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1043.503199575693</v>
+        <v>1133.921683757185</v>
       </c>
       <c r="AB2" t="n">
-        <v>1427.767113771563</v>
+        <v>1551.481672810675</v>
       </c>
       <c r="AC2" t="n">
-        <v>1291.503024316934</v>
+        <v>1403.410439475827</v>
       </c>
       <c r="AD2" t="n">
-        <v>1043503.199575693</v>
+        <v>1133921.683757185</v>
       </c>
       <c r="AE2" t="n">
-        <v>1427767.113771563</v>
+        <v>1551481.672810675</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.540150076701119e-07</v>
+        <v>2.124405080014769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.09722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1291503.024316934</v>
+        <v>1403410.439475827</v>
       </c>
     </row>
     <row r="3">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>840.5762588270466</v>
+        <v>930.8240612993958</v>
       </c>
       <c r="AB3" t="n">
-        <v>1150.113520934476</v>
+        <v>1273.594545729192</v>
       </c>
       <c r="AC3" t="n">
-        <v>1040.348300690953</v>
+        <v>1152.044469785968</v>
       </c>
       <c r="AD3" t="n">
-        <v>840576.2588270466</v>
+        <v>930824.0612993957</v>
       </c>
       <c r="AE3" t="n">
-        <v>1150113.520934476</v>
+        <v>1273594.545729192</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.049340952866294e-06</v>
+        <v>2.336677340517828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.36111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1040348.300690953</v>
+        <v>1152044.469785969</v>
       </c>
     </row>
     <row r="4">
@@ -9400,28 +9400,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>846.3337783778306</v>
+        <v>936.5815808501798</v>
       </c>
       <c r="AB4" t="n">
-        <v>1157.991213187694</v>
+        <v>1281.47223798241</v>
       </c>
       <c r="AC4" t="n">
-        <v>1047.474157051935</v>
+        <v>1159.170326146951</v>
       </c>
       <c r="AD4" t="n">
-        <v>846333.7783778306</v>
+        <v>936581.5808501798</v>
       </c>
       <c r="AE4" t="n">
-        <v>1157991.213187694</v>
+        <v>1281472.23798241</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.050033545598895e-06</v>
+        <v>2.33821960925332e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.34953703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1047474.157051935</v>
+        <v>1159170.326146951</v>
       </c>
     </row>
   </sheetData>
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3274.329238216549</v>
+        <v>3440.525211456815</v>
       </c>
       <c r="AB2" t="n">
-        <v>4480.081716939133</v>
+        <v>4707.478379575346</v>
       </c>
       <c r="AC2" t="n">
-        <v>4052.509005708474</v>
+        <v>4258.203250015898</v>
       </c>
       <c r="AD2" t="n">
-        <v>3274329.238216549</v>
+        <v>3440525.211456815</v>
       </c>
       <c r="AE2" t="n">
-        <v>4480081.716939133</v>
+        <v>4707478.379575346</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.518754295587561e-07</v>
+        <v>1.043466011815313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.22916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4052509.005708474</v>
+        <v>4258203.250015899</v>
       </c>
     </row>
     <row r="3">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2049.168490096965</v>
+        <v>2179.732682845904</v>
       </c>
       <c r="AB3" t="n">
-        <v>2803.762731084132</v>
+        <v>2982.406419688887</v>
       </c>
       <c r="AC3" t="n">
-        <v>2536.175551135169</v>
+        <v>2697.769736827479</v>
       </c>
       <c r="AD3" t="n">
-        <v>2049168.490096965</v>
+        <v>2179732.682845904</v>
       </c>
       <c r="AE3" t="n">
-        <v>2803762.731084132</v>
+        <v>2982406.419688887</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.427435659281016e-07</v>
+        <v>1.404352549560219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.97511574074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>2536175.551135169</v>
+        <v>2697769.736827479</v>
       </c>
     </row>
     <row r="4">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1772.233478513199</v>
+        <v>1879.128640970077</v>
       </c>
       <c r="AB4" t="n">
-        <v>2424.848030724781</v>
+        <v>2571.106707880018</v>
       </c>
       <c r="AC4" t="n">
-        <v>2193.423937967993</v>
+        <v>2325.723892250877</v>
       </c>
       <c r="AD4" t="n">
-        <v>1772233.478513199</v>
+        <v>1879128.640970077</v>
       </c>
       <c r="AE4" t="n">
-        <v>2424848.030724781</v>
+        <v>2571106.707880018</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.161833791884083e-07</v>
+        <v>1.543209880303252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.08854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2193423.937967993</v>
+        <v>2325723.892250877</v>
       </c>
     </row>
     <row r="5">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1634.998925804426</v>
+        <v>1741.808747406732</v>
       </c>
       <c r="AB5" t="n">
-        <v>2237.077661347467</v>
+        <v>2383.219571380506</v>
       </c>
       <c r="AC5" t="n">
-        <v>2023.574109106682</v>
+        <v>2155.768440357626</v>
       </c>
       <c r="AD5" t="n">
-        <v>1634998.925804426</v>
+        <v>1741808.747406732</v>
       </c>
       <c r="AE5" t="n">
-        <v>2237077.661347467</v>
+        <v>2383219.571380506</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.548415800101826e-07</v>
+        <v>1.616303401911388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.22337962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>2023574.109106682</v>
+        <v>2155768.440357626</v>
       </c>
     </row>
     <row r="6">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1541.675447866033</v>
+        <v>1648.57052081436</v>
       </c>
       <c r="AB6" t="n">
-        <v>2109.388361690885</v>
+        <v>2255.646916376574</v>
       </c>
       <c r="AC6" t="n">
-        <v>1908.071296996266</v>
+        <v>2040.371140497923</v>
       </c>
       <c r="AD6" t="n">
-        <v>1541675.447866033</v>
+        <v>1648570.52081436</v>
       </c>
       <c r="AE6" t="n">
-        <v>2109388.361690885</v>
+        <v>2255646.916376574</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.794471479427047e-07</v>
+        <v>1.662826715804031e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.71412037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1908071.296996266</v>
+        <v>2040371.140497923</v>
       </c>
     </row>
     <row r="7">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1485.928810738211</v>
+        <v>1592.653291485946</v>
       </c>
       <c r="AB7" t="n">
-        <v>2033.113353404543</v>
+        <v>2179.138496315384</v>
       </c>
       <c r="AC7" t="n">
-        <v>1839.075868448125</v>
+        <v>1971.164576667132</v>
       </c>
       <c r="AD7" t="n">
-        <v>1485928.810738211</v>
+        <v>1592653.291485946</v>
       </c>
       <c r="AE7" t="n">
-        <v>2033113.353404543</v>
+        <v>2179138.496315384</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.955457580342235e-07</v>
+        <v>1.6932653828804e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1839075.868448125</v>
+        <v>1971164.576667132</v>
       </c>
     </row>
     <row r="8">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1438.779544030174</v>
+        <v>1545.504024777908</v>
       </c>
       <c r="AB8" t="n">
-        <v>1968.601646615763</v>
+        <v>2114.626789526605</v>
       </c>
       <c r="AC8" t="n">
-        <v>1780.721068412518</v>
+        <v>1912.809776631524</v>
       </c>
       <c r="AD8" t="n">
-        <v>1438779.544030174</v>
+        <v>1545504.024777908</v>
       </c>
       <c r="AE8" t="n">
-        <v>1968601.646615763</v>
+        <v>2114626.789526605</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.073908892052408e-07</v>
+        <v>1.715661726548631e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.17013888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1780721.068412518</v>
+        <v>1912809.776631524</v>
       </c>
     </row>
     <row r="9">
@@ -10439,28 +10439,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1386.860424013812</v>
+        <v>1493.670156107567</v>
       </c>
       <c r="AB9" t="n">
-        <v>1897.563616099458</v>
+        <v>2043.70540366295</v>
       </c>
       <c r="AC9" t="n">
-        <v>1716.462807826187</v>
+        <v>1848.657028295906</v>
       </c>
       <c r="AD9" t="n">
-        <v>1386860.424013813</v>
+        <v>1493670.156107567</v>
       </c>
       <c r="AE9" t="n">
-        <v>1897563.616099458</v>
+        <v>2043705.40366295</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.170823601633457e-07</v>
+        <v>1.733986007731729e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.98784722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1716462.807826187</v>
+        <v>1848657.028295906</v>
       </c>
     </row>
     <row r="10">
@@ -10545,28 +10545,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1346.694056357679</v>
+        <v>1453.503788451434</v>
       </c>
       <c r="AB10" t="n">
-        <v>1842.606219857258</v>
+        <v>1988.748007420749</v>
       </c>
       <c r="AC10" t="n">
-        <v>1666.750468348152</v>
+        <v>1798.944688817871</v>
       </c>
       <c r="AD10" t="n">
-        <v>1346694.056357679</v>
+        <v>1453503.788451434</v>
       </c>
       <c r="AE10" t="n">
-        <v>1842606.219857258</v>
+        <v>1988748.007420749</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.234356577914368e-07</v>
+        <v>1.745998592062872e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.86921296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>1666750.468348152</v>
+        <v>1798944.688817871</v>
       </c>
     </row>
     <row r="11">
@@ -10651,28 +10651,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1310.815121692797</v>
+        <v>1417.624853786552</v>
       </c>
       <c r="AB11" t="n">
-        <v>1793.515078581883</v>
+        <v>1939.656866145374</v>
       </c>
       <c r="AC11" t="n">
-        <v>1622.34451669625</v>
+        <v>1754.538737165968</v>
       </c>
       <c r="AD11" t="n">
-        <v>1310815.121692797</v>
+        <v>1417624.853786552</v>
       </c>
       <c r="AE11" t="n">
-        <v>1793515.078581883</v>
+        <v>1939656.866145374</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.300043214408191e-07</v>
+        <v>1.758418382642527e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.75057870370371</v>
       </c>
       <c r="AH11" t="n">
-        <v>1622344.51669625</v>
+        <v>1754538.737165968</v>
       </c>
     </row>
     <row r="12">
@@ -10757,28 +10757,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1287.586081796851</v>
+        <v>1394.395813890606</v>
       </c>
       <c r="AB12" t="n">
-        <v>1761.732081403335</v>
+        <v>1907.873868966826</v>
       </c>
       <c r="AC12" t="n">
-        <v>1593.594844160706</v>
+        <v>1725.789064630424</v>
       </c>
       <c r="AD12" t="n">
-        <v>1287586.081796851</v>
+        <v>1394395.813890606</v>
       </c>
       <c r="AE12" t="n">
-        <v>1761732.081403335</v>
+        <v>1907873.868966826</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.330194457388963e-07</v>
+        <v>1.764119270121713e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.69849537037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1593594.844160706</v>
+        <v>1725789.064630424</v>
       </c>
     </row>
     <row r="13">
@@ -10863,28 +10863,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1285.537654696216</v>
+        <v>1392.347386789971</v>
       </c>
       <c r="AB13" t="n">
-        <v>1758.929333074021</v>
+        <v>1905.071120637512</v>
       </c>
       <c r="AC13" t="n">
-        <v>1591.059586198259</v>
+        <v>1723.253806667978</v>
       </c>
       <c r="AD13" t="n">
-        <v>1285537.654696216</v>
+        <v>1392347.386789971</v>
       </c>
       <c r="AE13" t="n">
-        <v>1758929.333074021</v>
+        <v>1905071.120637512</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.339885928347066e-07</v>
+        <v>1.765951698240023e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.68113425925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>1591059.586198259</v>
+        <v>1723253.806667978</v>
       </c>
     </row>
     <row r="14">
@@ -10969,28 +10969,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1291.002321288104</v>
+        <v>1397.812053381859</v>
       </c>
       <c r="AB14" t="n">
-        <v>1766.406330989117</v>
+        <v>1912.548118552608</v>
       </c>
       <c r="AC14" t="n">
-        <v>1597.822989926372</v>
+        <v>1730.01721039609</v>
       </c>
       <c r="AD14" t="n">
-        <v>1291002.321288104</v>
+        <v>1397812.053381859</v>
       </c>
       <c r="AE14" t="n">
-        <v>1766406.330989117</v>
+        <v>1912548.118552608</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.339347513293837e-07</v>
+        <v>1.765849896677894e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.68113425925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>1597822.989926371</v>
+        <v>1730017.21039609</v>
       </c>
     </row>
   </sheetData>
@@ -11266,28 +11266,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>865.503917573854</v>
+        <v>953.6149670910222</v>
       </c>
       <c r="AB2" t="n">
-        <v>1184.220643362546</v>
+        <v>1304.778068497097</v>
       </c>
       <c r="AC2" t="n">
-        <v>1071.200287224136</v>
+        <v>1180.251880907254</v>
       </c>
       <c r="AD2" t="n">
-        <v>865503.917573854</v>
+        <v>953614.9670910222</v>
       </c>
       <c r="AE2" t="n">
-        <v>1184220.643362546</v>
+        <v>1304778.068497097</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.015176006607182e-06</v>
+        <v>2.327358756302177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.36516203703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1071200.287224136</v>
+        <v>1180251.880907254</v>
       </c>
     </row>
     <row r="3">
@@ -11372,28 +11372,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>788.9373445340187</v>
+        <v>877.1336453972077</v>
       </c>
       <c r="AB3" t="n">
-        <v>1079.45888025064</v>
+        <v>1200.13295003784</v>
       </c>
       <c r="AC3" t="n">
-        <v>976.436839749572</v>
+        <v>1085.593945683402</v>
       </c>
       <c r="AD3" t="n">
-        <v>788937.3445340188</v>
+        <v>877133.6453972077</v>
       </c>
       <c r="AE3" t="n">
-        <v>1079458.88025064</v>
+        <v>1200132.95003784</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.05692999278817e-06</v>
+        <v>2.423082556624857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.64178240740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>976436.839749572</v>
+        <v>1085593.945683402</v>
       </c>
     </row>
   </sheetData>
@@ -11669,28 +11669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2394.250868403236</v>
+        <v>2542.304306215206</v>
       </c>
       <c r="AB2" t="n">
-        <v>3275.919665043037</v>
+        <v>3478.492910314081</v>
       </c>
       <c r="AC2" t="n">
-        <v>2963.270489993333</v>
+        <v>3146.510429049036</v>
       </c>
       <c r="AD2" t="n">
-        <v>2394250.868403236</v>
+        <v>2542304.306215206</v>
       </c>
       <c r="AE2" t="n">
-        <v>3275919.665043037</v>
+        <v>3478492.910314081</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.538027780695722e-07</v>
+        <v>1.281444409505001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.77141203703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>2963270.489993333</v>
+        <v>3146510.429049036</v>
       </c>
     </row>
     <row r="3">
@@ -11775,28 +11775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1642.352455209177</v>
+        <v>1756.305361875747</v>
       </c>
       <c r="AB3" t="n">
-        <v>2247.139084693868</v>
+        <v>2403.054478842506</v>
       </c>
       <c r="AC3" t="n">
-        <v>2032.675284330199</v>
+        <v>2173.71033208992</v>
       </c>
       <c r="AD3" t="n">
-        <v>1642352.455209177</v>
+        <v>1756305.361875747</v>
       </c>
       <c r="AE3" t="n">
-        <v>2247139.084693869</v>
+        <v>2403054.478842506</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.254260073128351e-07</v>
+        <v>1.617823567000064e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.62384259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>2032675.284330199</v>
+        <v>2173710.332089921</v>
       </c>
     </row>
     <row r="4">
@@ -11881,28 +11881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1448.537628889304</v>
+        <v>1551.009993543197</v>
       </c>
       <c r="AB4" t="n">
-        <v>1981.953088816346</v>
+        <v>2122.160298897471</v>
       </c>
       <c r="AC4" t="n">
-        <v>1792.798267708344</v>
+        <v>1919.624298441381</v>
       </c>
       <c r="AD4" t="n">
-        <v>1448537.628889304</v>
+        <v>1551009.993543196</v>
       </c>
       <c r="AE4" t="n">
-        <v>1981953.088816346</v>
+        <v>2122160.298897471</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.883433294489822e-07</v>
+        <v>1.741140648873662e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.23206018518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>1792798.267708344</v>
+        <v>1919624.298441381</v>
       </c>
     </row>
     <row r="5">
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1338.983064406938</v>
+        <v>1441.540680406851</v>
       </c>
       <c r="AB5" t="n">
-        <v>1832.055700485298</v>
+        <v>1972.379555219072</v>
       </c>
       <c r="AC5" t="n">
-        <v>1657.206875737306</v>
+        <v>1784.138418721056</v>
       </c>
       <c r="AD5" t="n">
-        <v>1338983.064406938</v>
+        <v>1441540.680406851</v>
       </c>
       <c r="AE5" t="n">
-        <v>1832055.700485298</v>
+        <v>1972379.555219072</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.220970173921288e-07</v>
+        <v>1.807297410768484e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.56365740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>1657206.875737306</v>
+        <v>1784138.418721056</v>
       </c>
     </row>
     <row r="6">
@@ -12093,28 +12093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1271.84570898317</v>
+        <v>1374.232732782491</v>
       </c>
       <c r="AB6" t="n">
-        <v>1740.195408903417</v>
+        <v>1880.285851862344</v>
       </c>
       <c r="AC6" t="n">
-        <v>1574.113601457271</v>
+        <v>1700.834009158369</v>
       </c>
       <c r="AD6" t="n">
-        <v>1271845.70898317</v>
+        <v>1374232.732782491</v>
       </c>
       <c r="AE6" t="n">
-        <v>1740195.408903417</v>
+        <v>1880285.851862344</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.419685915543461e-07</v>
+        <v>1.846245421502582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.19328703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1574113.601457271</v>
+        <v>1700834.009158369</v>
       </c>
     </row>
     <row r="7">
@@ -12199,28 +12199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1205.312871901284</v>
+        <v>1307.785147046625</v>
       </c>
       <c r="AB7" t="n">
-        <v>1649.162245986366</v>
+        <v>1789.369333597943</v>
       </c>
       <c r="AC7" t="n">
-        <v>1491.768515843176</v>
+        <v>1618.594435794987</v>
       </c>
       <c r="AD7" t="n">
-        <v>1205312.871901284</v>
+        <v>1307785.147046625</v>
       </c>
       <c r="AE7" t="n">
-        <v>1649162.245986366</v>
+        <v>1789369.333597943</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.566903493139607e-07</v>
+        <v>1.875099863257704e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.92997685185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>1491768.515843176</v>
+        <v>1618594.435794987</v>
       </c>
     </row>
     <row r="8">
@@ -12305,28 +12305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1159.618963484877</v>
+        <v>1262.091238630218</v>
       </c>
       <c r="AB8" t="n">
-        <v>1586.641824618072</v>
+        <v>1726.848912229648</v>
       </c>
       <c r="AC8" t="n">
-        <v>1435.214955742309</v>
+        <v>1562.04087569412</v>
       </c>
       <c r="AD8" t="n">
-        <v>1159618.963484877</v>
+        <v>1262091.238630218</v>
       </c>
       <c r="AE8" t="n">
-        <v>1586641.824618072</v>
+        <v>1726848.912229648</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.653106941617957e-07</v>
+        <v>1.891995620026862e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.77951388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1435214.955742309</v>
+        <v>1562040.87569412</v>
       </c>
     </row>
     <row r="9">
@@ -12411,28 +12411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1148.120921911281</v>
+        <v>1250.593197056623</v>
       </c>
       <c r="AB9" t="n">
-        <v>1570.909696879285</v>
+        <v>1711.116784490861</v>
       </c>
       <c r="AC9" t="n">
-        <v>1420.984280194732</v>
+        <v>1547.810200146543</v>
       </c>
       <c r="AD9" t="n">
-        <v>1148120.921911281</v>
+        <v>1250593.197056623</v>
       </c>
       <c r="AE9" t="n">
-        <v>1570909.696879285</v>
+        <v>1711116.784490861</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.679415786283427e-07</v>
+        <v>1.897152117222644e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.73321759259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>1420984.280194733</v>
+        <v>1547810.200146543</v>
       </c>
     </row>
   </sheetData>
@@ -12708,28 +12708,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2809.096809633897</v>
+        <v>2971.883158302798</v>
       </c>
       <c r="AB2" t="n">
-        <v>3843.530183546116</v>
+        <v>4066.261647421769</v>
       </c>
       <c r="AC2" t="n">
-        <v>3476.709057256824</v>
+        <v>3678.183342825748</v>
       </c>
       <c r="AD2" t="n">
-        <v>2809096.809633898</v>
+        <v>2971883.158302798</v>
       </c>
       <c r="AE2" t="n">
-        <v>3843530.183546117</v>
+        <v>4066261.647421769</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.005591867376757e-07</v>
+        <v>1.154696998806229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.42361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>3476709.057256824</v>
+        <v>3678183.342825748</v>
       </c>
     </row>
     <row r="3">
@@ -12814,28 +12814,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1848.171502080483</v>
+        <v>1964.545023394508</v>
       </c>
       <c r="AB3" t="n">
-        <v>2528.749784718697</v>
+        <v>2687.977170617964</v>
       </c>
       <c r="AC3" t="n">
-        <v>2287.409454387757</v>
+        <v>2431.440402053838</v>
       </c>
       <c r="AD3" t="n">
-        <v>1848171.502080483</v>
+        <v>1964545.023394508</v>
       </c>
       <c r="AE3" t="n">
-        <v>2528749.784718697</v>
+        <v>2687977.170617964</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.824271559817061e-07</v>
+        <v>1.504375103650197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.28356481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>2287409.454387757</v>
+        <v>2431440.402053838</v>
       </c>
     </row>
     <row r="4">
@@ -12920,28 +12920,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1604.044079501434</v>
+        <v>1720.417511306908</v>
       </c>
       <c r="AB4" t="n">
-        <v>2194.723875004275</v>
+        <v>2353.951138433995</v>
       </c>
       <c r="AC4" t="n">
-        <v>1985.262508688172</v>
+        <v>2129.293345573026</v>
       </c>
       <c r="AD4" t="n">
-        <v>1604044.079501434</v>
+        <v>1720417.511306908</v>
       </c>
       <c r="AE4" t="n">
-        <v>2194723.875004275</v>
+        <v>2353951.138433995</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.508744495934519e-07</v>
+        <v>1.635978925979893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.65162037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1985262.508688172</v>
+        <v>2129293.345573026</v>
       </c>
     </row>
     <row r="5">
@@ -13026,28 +13026,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1483.835401589564</v>
+        <v>1600.123492540466</v>
       </c>
       <c r="AB5" t="n">
-        <v>2030.249058652669</v>
+        <v>2189.359554960191</v>
       </c>
       <c r="AC5" t="n">
-        <v>1836.484937967308</v>
+        <v>1980.410151820224</v>
       </c>
       <c r="AD5" t="n">
-        <v>1483835.401589564</v>
+        <v>1600123.492540466</v>
       </c>
       <c r="AE5" t="n">
-        <v>2030249.058652669</v>
+        <v>2189359.55496019</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.867434640342228e-07</v>
+        <v>1.704944390566129e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.89641203703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>1836484.937967308</v>
+        <v>1980410.151820224</v>
       </c>
     </row>
     <row r="6">
@@ -13132,28 +13132,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1408.467244724635</v>
+        <v>1513.109547918084</v>
       </c>
       <c r="AB6" t="n">
-        <v>1927.12702142166</v>
+        <v>2070.303237143538</v>
       </c>
       <c r="AC6" t="n">
-        <v>1743.204723236938</v>
+        <v>1872.716401879401</v>
       </c>
       <c r="AD6" t="n">
-        <v>1408467.244724635</v>
+        <v>1513109.547918084</v>
       </c>
       <c r="AE6" t="n">
-        <v>1927127.02142166</v>
+        <v>2070303.237143538</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.103270668010903e-07</v>
+        <v>1.750288656272674e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.43344907407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>1743204.723236938</v>
+        <v>1872716.401879401</v>
       </c>
     </row>
     <row r="7">
@@ -13238,28 +13238,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1354.525359958838</v>
+        <v>1459.167663152287</v>
       </c>
       <c r="AB7" t="n">
-        <v>1853.321354937096</v>
+        <v>1996.497570658974</v>
       </c>
       <c r="AC7" t="n">
-        <v>1676.442965974757</v>
+        <v>1805.95464461722</v>
       </c>
       <c r="AD7" t="n">
-        <v>1354525.359958838</v>
+        <v>1459167.663152287</v>
       </c>
       <c r="AE7" t="n">
-        <v>1853321.354937095</v>
+        <v>1996497.570658974</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.245320740490409e-07</v>
+        <v>1.777600667477315e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.16435185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>1676442.965974757</v>
+        <v>1805954.64461722</v>
       </c>
     </row>
     <row r="8">
@@ -13344,28 +13344,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1295.036801272917</v>
+        <v>1399.764355812386</v>
       </c>
       <c r="AB8" t="n">
-        <v>1771.926484493032</v>
+        <v>1915.21934486756</v>
       </c>
       <c r="AC8" t="n">
-        <v>1602.816307727457</v>
+        <v>1732.433498620632</v>
       </c>
       <c r="AD8" t="n">
-        <v>1295036.801272917</v>
+        <v>1399764.355812386</v>
       </c>
       <c r="AE8" t="n">
-        <v>1771926.484493032</v>
+        <v>1915219.34486756</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.356108827906857e-07</v>
+        <v>1.79890192718132e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.96180555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>1602816.307727457</v>
+        <v>1732433.498620633</v>
       </c>
     </row>
     <row r="9">
@@ -13450,28 +13450,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1250.913392986805</v>
+        <v>1355.640947526275</v>
       </c>
       <c r="AB9" t="n">
-        <v>1711.554890688585</v>
+        <v>1854.847751063113</v>
       </c>
       <c r="AC9" t="n">
-        <v>1548.206494103642</v>
+        <v>1677.823684996818</v>
       </c>
       <c r="AD9" t="n">
-        <v>1250913.392986805</v>
+        <v>1355640.947526275</v>
       </c>
       <c r="AE9" t="n">
-        <v>1711554.890688585</v>
+        <v>1854847.751063113</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.444410224313035e-07</v>
+        <v>1.815879663876096e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.80266203703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>1548206.494103642</v>
+        <v>1677823.684996817</v>
       </c>
     </row>
     <row r="10">
@@ -13556,28 +13556,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1221.282379249297</v>
+        <v>1326.009933788767</v>
       </c>
       <c r="AB10" t="n">
-        <v>1671.01243046486</v>
+        <v>1814.305290839387</v>
       </c>
       <c r="AC10" t="n">
-        <v>1511.533349381969</v>
+        <v>1641.150540275144</v>
       </c>
       <c r="AD10" t="n">
-        <v>1221282.379249297</v>
+        <v>1326009.933788767</v>
       </c>
       <c r="AE10" t="n">
-        <v>1671012.43046486</v>
+        <v>1814305.290839387</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.494319709238268e-07</v>
+        <v>1.82547577592097e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.71585648148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>1511533.349381969</v>
+        <v>1641150.540275144</v>
       </c>
     </row>
     <row r="11">
@@ -13662,28 +13662,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1217.307065159991</v>
+        <v>1322.034619699461</v>
       </c>
       <c r="AB11" t="n">
-        <v>1665.573230349391</v>
+        <v>1808.866090723918</v>
       </c>
       <c r="AC11" t="n">
-        <v>1506.613258891555</v>
+        <v>1636.23044978473</v>
       </c>
       <c r="AD11" t="n">
-        <v>1217307.065159991</v>
+        <v>1322034.61969946</v>
       </c>
       <c r="AE11" t="n">
-        <v>1665573.230349391</v>
+        <v>1808866.090723918</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.504740370925953e-07</v>
+        <v>1.827479359754515e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.69560185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1506613.258891555</v>
+        <v>1636230.44978473</v>
       </c>
     </row>
     <row r="12">
@@ -13768,28 +13768,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1222.467781539287</v>
+        <v>1327.195336078757</v>
       </c>
       <c r="AB12" t="n">
-        <v>1672.634350174282</v>
+        <v>1815.92721054881</v>
       </c>
       <c r="AC12" t="n">
-        <v>1513.000475350703</v>
+        <v>1642.617666243878</v>
       </c>
       <c r="AD12" t="n">
-        <v>1222467.781539287</v>
+        <v>1327195.336078757</v>
       </c>
       <c r="AE12" t="n">
-        <v>1672634.350174282</v>
+        <v>1815927.21054881</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.504740370925953e-07</v>
+        <v>1.827479359754515e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.69560185185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>1513000.475350703</v>
+        <v>1642617.666243878</v>
       </c>
     </row>
   </sheetData>
@@ -14065,28 +14065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3800.645492932692</v>
+        <v>3981.953073177214</v>
       </c>
       <c r="AB2" t="n">
-        <v>5200.210836076212</v>
+        <v>5448.283866092702</v>
       </c>
       <c r="AC2" t="n">
-        <v>4703.91001242265</v>
+        <v>4928.307300627041</v>
       </c>
       <c r="AD2" t="n">
-        <v>3800645.492932692</v>
+        <v>3981953.073177214</v>
       </c>
       <c r="AE2" t="n">
-        <v>5200210.836076212</v>
+        <v>5448283.866092701</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.071482225795059e-07</v>
+        <v>9.447786732863793e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.20254629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>4703910.01242265</v>
+        <v>4928307.300627041</v>
       </c>
     </row>
     <row r="3">
@@ -14171,28 +14171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2272.72155522293</v>
+        <v>2405.742965055995</v>
       </c>
       <c r="AB3" t="n">
-        <v>3109.63789725483</v>
+        <v>3291.643658678865</v>
       </c>
       <c r="AC3" t="n">
-        <v>2812.858420744911</v>
+        <v>2977.493807745319</v>
       </c>
       <c r="AD3" t="n">
-        <v>2272721.555222929</v>
+        <v>2405742.965055995</v>
       </c>
       <c r="AE3" t="n">
-        <v>3109637.89725483</v>
+        <v>3291643.658678865</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.054548240182147e-07</v>
+        <v>1.314208830920072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.71296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>2812858.420744911</v>
+        <v>2977493.807745319</v>
       </c>
     </row>
     <row r="4">
@@ -14277,28 +14277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1934.962684080348</v>
+        <v>2055.891238474043</v>
       </c>
       <c r="AB4" t="n">
-        <v>2647.501308887627</v>
+        <v>2812.961092000377</v>
       </c>
       <c r="AC4" t="n">
-        <v>2394.827499758816</v>
+        <v>2544.496033395548</v>
       </c>
       <c r="AD4" t="n">
-        <v>1934962.684080348</v>
+        <v>2055891.238474043</v>
       </c>
       <c r="AE4" t="n">
-        <v>2647501.308887627</v>
+        <v>2812961.092000376</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.82744636645154e-07</v>
+        <v>1.458193889688143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.56886574074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>2394827.499758816</v>
+        <v>2544496.033395548</v>
       </c>
     </row>
     <row r="5">
@@ -14383,28 +14383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1774.362572170348</v>
+        <v>1895.205785709472</v>
       </c>
       <c r="AB5" t="n">
-        <v>2427.761150595475</v>
+        <v>2593.104166586026</v>
       </c>
       <c r="AC5" t="n">
-        <v>2196.059033766818</v>
+        <v>2345.621944371611</v>
       </c>
       <c r="AD5" t="n">
-        <v>1774362.572170348</v>
+        <v>1895205.785709472</v>
       </c>
       <c r="AE5" t="n">
-        <v>2427761.150595475</v>
+        <v>2593104.166586026</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.252540335899706e-07</v>
+        <v>1.537385672010581e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.5619212962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>2196059.033766818</v>
+        <v>2345621.944371611</v>
       </c>
     </row>
     <row r="6">
@@ -14489,28 +14489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1689.766858565297</v>
+        <v>1798.517306173602</v>
       </c>
       <c r="AB6" t="n">
-        <v>2312.013563141557</v>
+        <v>2460.810723290383</v>
       </c>
       <c r="AC6" t="n">
-        <v>2091.358233606742</v>
+        <v>2225.95440162909</v>
       </c>
       <c r="AD6" t="n">
-        <v>1689766.858565297</v>
+        <v>1798517.306173602</v>
       </c>
       <c r="AE6" t="n">
-        <v>2312013.563141557</v>
+        <v>2460810.723290383</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.503467535798126e-07</v>
+        <v>1.584131506158571e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.01504629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>2091358.233606743</v>
+        <v>2225954.40162909</v>
       </c>
     </row>
     <row r="7">
@@ -14595,28 +14595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1615.711633708801</v>
+        <v>1724.547332663127</v>
       </c>
       <c r="AB7" t="n">
-        <v>2210.687937406959</v>
+        <v>2359.601742208433</v>
       </c>
       <c r="AC7" t="n">
-        <v>1999.702983380846</v>
+        <v>2134.404663653905</v>
       </c>
       <c r="AD7" t="n">
-        <v>1615711.633708801</v>
+        <v>1724547.332663127</v>
       </c>
       <c r="AE7" t="n">
-        <v>2210687.937406959</v>
+        <v>2359601.742208433</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.67816368762614e-07</v>
+        <v>1.616676074236286e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.65046296296297</v>
       </c>
       <c r="AH7" t="n">
-        <v>1999702.983380846</v>
+        <v>2134404.663653905</v>
       </c>
     </row>
     <row r="8">
@@ -14701,28 +14701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1564.589536169026</v>
+        <v>1673.25464292276</v>
       </c>
       <c r="AB8" t="n">
-        <v>2140.74042820527</v>
+        <v>2289.420821231897</v>
       </c>
       <c r="AC8" t="n">
-        <v>1936.43116628542</v>
+        <v>2070.921711275828</v>
       </c>
       <c r="AD8" t="n">
-        <v>1564589.536169026</v>
+        <v>1673254.64292276</v>
       </c>
       <c r="AE8" t="n">
-        <v>2140740.42820527</v>
+        <v>2289420.821231897</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.817391226810283e-07</v>
+        <v>1.642613108795191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.37268518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>1936431.16628542</v>
+        <v>2070921.711275828</v>
       </c>
     </row>
     <row r="9">
@@ -14807,28 +14807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1524.846422028005</v>
+        <v>1633.511528781739</v>
       </c>
       <c r="AB9" t="n">
-        <v>2086.362146095074</v>
+        <v>2235.042539121701</v>
       </c>
       <c r="AC9" t="n">
-        <v>1887.242671099423</v>
+        <v>2021.733216089831</v>
       </c>
       <c r="AD9" t="n">
-        <v>1524846.422028005</v>
+        <v>1633511.528781739</v>
       </c>
       <c r="AE9" t="n">
-        <v>2086362.146095074</v>
+        <v>2235042.539121701</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.910562507785223e-07</v>
+        <v>1.659970211769972e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.19039351851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>1887242.671099422</v>
+        <v>2021733.216089831</v>
       </c>
     </row>
     <row r="10">
@@ -14913,28 +14913,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1486.801571982174</v>
+        <v>1583.544505005682</v>
       </c>
       <c r="AB10" t="n">
-        <v>2034.307503842041</v>
+        <v>2166.675452801789</v>
       </c>
       <c r="AC10" t="n">
-        <v>1840.15605084387</v>
+        <v>1959.890988534482</v>
       </c>
       <c r="AD10" t="n">
-        <v>1486801.571982174</v>
+        <v>1583544.505005682</v>
       </c>
       <c r="AE10" t="n">
-        <v>2034307.503842041</v>
+        <v>2166675.452801789</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.992616760916564e-07</v>
+        <v>1.675256296776172e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.03414351851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>1840156.05084387</v>
+        <v>1959890.988534482</v>
       </c>
     </row>
     <row r="11">
@@ -15019,28 +15019,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1436.392917327925</v>
+        <v>1545.143275427679</v>
       </c>
       <c r="AB11" t="n">
-        <v>1965.336158671207</v>
+        <v>2114.133196350483</v>
       </c>
       <c r="AC11" t="n">
-        <v>1777.767234054249</v>
+        <v>1912.363291295369</v>
       </c>
       <c r="AD11" t="n">
-        <v>1436392.917327925</v>
+        <v>1545143.275427679</v>
       </c>
       <c r="AE11" t="n">
-        <v>1965336.158671207</v>
+        <v>2114133.196350483</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.0524369583607e-07</v>
+        <v>1.686400345845207e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.92129629629629</v>
       </c>
       <c r="AH11" t="n">
-        <v>1777767.234054249</v>
+        <v>1912363.291295369</v>
       </c>
     </row>
     <row r="12">
@@ -15125,28 +15125,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1409.744606489277</v>
+        <v>1518.494964589032</v>
       </c>
       <c r="AB12" t="n">
-        <v>1928.874764141268</v>
+        <v>2077.671801820544</v>
       </c>
       <c r="AC12" t="n">
-        <v>1744.785663844359</v>
+        <v>1879.381721085479</v>
       </c>
       <c r="AD12" t="n">
-        <v>1409744.606489277</v>
+        <v>1518494.964589032</v>
       </c>
       <c r="AE12" t="n">
-        <v>1928874.764141268</v>
+        <v>2077671.801820544</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.105375186187373e-07</v>
+        <v>1.696262336171788e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.82291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1744785.663844359</v>
+        <v>1879381.721085479</v>
       </c>
     </row>
     <row r="13">
@@ -15231,28 +15231,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1376.508931928452</v>
+        <v>1485.259290028206</v>
       </c>
       <c r="AB13" t="n">
-        <v>1883.400247952667</v>
+        <v>2032.197285631944</v>
       </c>
       <c r="AC13" t="n">
-        <v>1703.651171656914</v>
+        <v>1838.247228898034</v>
       </c>
       <c r="AD13" t="n">
-        <v>1376508.931928452</v>
+        <v>1485259.290028206</v>
       </c>
       <c r="AE13" t="n">
-        <v>1883400.247952667</v>
+        <v>2032197.285631944</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.156725267179244e-07</v>
+        <v>1.70582846678857e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.72743055555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>1703651.171656914</v>
+        <v>1838247.228898034</v>
       </c>
     </row>
     <row r="14">
@@ -15337,28 +15337,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1352.978230803621</v>
+        <v>1461.728588903375</v>
       </c>
       <c r="AB14" t="n">
-        <v>1851.204504572406</v>
+        <v>2000.001542251682</v>
       </c>
       <c r="AC14" t="n">
-        <v>1674.528144837855</v>
+        <v>1809.124202078976</v>
       </c>
       <c r="AD14" t="n">
-        <v>1352978.230803621</v>
+        <v>1461728.588903375</v>
       </c>
       <c r="AE14" t="n">
-        <v>1851204.504572406</v>
+        <v>2000001.542251682</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.185841292483913e-07</v>
+        <v>1.711252561468189e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.67534722222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1674528.144837855</v>
+        <v>1809124.202078976</v>
       </c>
     </row>
     <row r="15">
@@ -15443,28 +15443,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1348.106065956703</v>
+        <v>1456.856424056457</v>
       </c>
       <c r="AB15" t="n">
-        <v>1844.538193684109</v>
+        <v>1993.335231363386</v>
       </c>
       <c r="AC15" t="n">
-        <v>1668.498057304512</v>
+        <v>1803.094114545632</v>
       </c>
       <c r="AD15" t="n">
-        <v>1348106.065956703</v>
+        <v>1456856.424056457</v>
       </c>
       <c r="AE15" t="n">
-        <v>1844538.193684109</v>
+        <v>1993335.231363386</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.192193879823113e-07</v>
+        <v>1.712436000307379e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.66377314814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>1668498.057304512</v>
+        <v>1803094.114545632</v>
       </c>
     </row>
     <row r="16">
@@ -15549,28 +15549,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1353.989512928091</v>
+        <v>1462.739871027845</v>
       </c>
       <c r="AB16" t="n">
-        <v>1852.588185389724</v>
+        <v>2001.385223069</v>
       </c>
       <c r="AC16" t="n">
-        <v>1675.779769099977</v>
+        <v>1810.375826341097</v>
       </c>
       <c r="AD16" t="n">
-        <v>1353989.512928091</v>
+        <v>1462739.871027845</v>
       </c>
       <c r="AE16" t="n">
-        <v>1852588.185389724</v>
+        <v>2001385.223069</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.191664497544845e-07</v>
+        <v>1.712337380404113e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.66377314814815</v>
       </c>
       <c r="AH16" t="n">
-        <v>1675779.769099977</v>
+        <v>1810375.826341097</v>
       </c>
     </row>
   </sheetData>
@@ -15846,28 +15846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2026.241051626199</v>
+        <v>2159.516261294915</v>
       </c>
       <c r="AB2" t="n">
-        <v>2772.392398281232</v>
+        <v>2954.745419837251</v>
       </c>
       <c r="AC2" t="n">
-        <v>2507.799158866439</v>
+        <v>2672.748663979227</v>
       </c>
       <c r="AD2" t="n">
-        <v>2026241.051626199</v>
+        <v>2159516.261294915</v>
       </c>
       <c r="AE2" t="n">
-        <v>2772392.398281232</v>
+        <v>2954745.419837251</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.13482924051679e-07</v>
+        <v>1.430174634073828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.22627314814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>2507799.158866439</v>
+        <v>2672748.663979227</v>
       </c>
     </row>
     <row r="3">
@@ -15952,28 +15952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1442.325254180892</v>
+        <v>1553.444748217411</v>
       </c>
       <c r="AB3" t="n">
-        <v>1973.453043669668</v>
+        <v>2125.491637656527</v>
       </c>
       <c r="AC3" t="n">
-        <v>1785.109454940577</v>
+        <v>1922.637698904837</v>
       </c>
       <c r="AD3" t="n">
-        <v>1442325.254180892</v>
+        <v>1553444.748217411</v>
       </c>
       <c r="AE3" t="n">
-        <v>1973453.043669668</v>
+        <v>2125491.637656527</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.72524670727832e-07</v>
+        <v>1.748973394615088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.99305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1785109.454940577</v>
+        <v>1922637.698904837</v>
       </c>
     </row>
     <row r="4">
@@ -16058,28 +16058,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1277.54428076589</v>
+        <v>1377.628632167872</v>
       </c>
       <c r="AB4" t="n">
-        <v>1747.99244621978</v>
+        <v>1884.93227121793</v>
       </c>
       <c r="AC4" t="n">
-        <v>1581.16650047537</v>
+        <v>1705.036980771948</v>
       </c>
       <c r="AD4" t="n">
-        <v>1277544.28076589</v>
+        <v>1377628.632167872</v>
       </c>
       <c r="AE4" t="n">
-        <v>1747992.44621978</v>
+        <v>1884932.27121793</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.305402592704833e-07</v>
+        <v>1.865265488395533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.80960648148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>1581166.500475369</v>
+        <v>1705036.980771948</v>
       </c>
     </row>
     <row r="5">
@@ -16164,28 +16164,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1191.710840943528</v>
+        <v>1291.624600144917</v>
       </c>
       <c r="AB5" t="n">
-        <v>1630.55134715071</v>
+        <v>1767.257760374014</v>
       </c>
       <c r="AC5" t="n">
-        <v>1474.933815071835</v>
+        <v>1598.593160085762</v>
       </c>
       <c r="AD5" t="n">
-        <v>1191710.840943528</v>
+        <v>1291624.600144917</v>
       </c>
       <c r="AE5" t="n">
-        <v>1630551.34715071</v>
+        <v>1767257.760374014</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.600921286564734e-07</v>
+        <v>1.924502132414003e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.25983796296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>1474933.815071835</v>
+        <v>1598593.160085762</v>
       </c>
     </row>
     <row r="6">
@@ -16270,28 +16270,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1110.538252505186</v>
+        <v>1210.537263052596</v>
       </c>
       <c r="AB6" t="n">
-        <v>1519.48743056751</v>
+        <v>1656.310488443463</v>
       </c>
       <c r="AC6" t="n">
-        <v>1374.469682808149</v>
+        <v>1498.234540072789</v>
       </c>
       <c r="AD6" t="n">
-        <v>1110538.252505186</v>
+        <v>1210537.263052596</v>
       </c>
       <c r="AE6" t="n">
-        <v>1519487.43056751</v>
+        <v>1656310.488443463</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.793352063961879e-07</v>
+        <v>1.963074830844634e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.92129629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>1374469.682808149</v>
+        <v>1498234.540072789</v>
       </c>
     </row>
     <row r="7">
@@ -16376,28 +16376,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1078.998337367976</v>
+        <v>1178.997347915386</v>
       </c>
       <c r="AB7" t="n">
-        <v>1476.333127233926</v>
+        <v>1613.15618510988</v>
       </c>
       <c r="AC7" t="n">
-        <v>1335.433965617277</v>
+        <v>1459.198822881918</v>
       </c>
       <c r="AD7" t="n">
-        <v>1078998.337367976</v>
+        <v>1178997.347915386</v>
       </c>
       <c r="AE7" t="n">
-        <v>1476333.127233926</v>
+        <v>1613156.18510988</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.872386133249994e-07</v>
+        <v>1.978917189128644e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.78530092592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>1335433.965617277</v>
+        <v>1459198.822881917</v>
       </c>
     </row>
     <row r="8">
@@ -16482,28 +16482,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1083.21342423916</v>
+        <v>1183.212434786569</v>
       </c>
       <c r="AB8" t="n">
-        <v>1482.100395047588</v>
+        <v>1618.923452923541</v>
       </c>
       <c r="AC8" t="n">
-        <v>1340.650813485214</v>
+        <v>1464.415670749854</v>
       </c>
       <c r="AD8" t="n">
-        <v>1083213.42423916</v>
+        <v>1183212.434786569</v>
       </c>
       <c r="AE8" t="n">
-        <v>1482100.395047588</v>
+        <v>1618923.452923541</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.871813422602978e-07</v>
+        <v>1.978802389430933e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.78530092592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>1340650.813485214</v>
+        <v>1464415.670749854</v>
       </c>
     </row>
   </sheetData>
@@ -16779,28 +16779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1523.539490265359</v>
+        <v>1629.99206984263</v>
       </c>
       <c r="AB2" t="n">
-        <v>2084.573944399661</v>
+        <v>2230.227060133643</v>
       </c>
       <c r="AC2" t="n">
-        <v>1885.625132864063</v>
+        <v>2017.377319657826</v>
       </c>
       <c r="AD2" t="n">
-        <v>1523539.490265359</v>
+        <v>1629992.06984263</v>
       </c>
       <c r="AE2" t="n">
-        <v>2084573.944399661</v>
+        <v>2230227.060133643</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.177845273167443e-07</v>
+        <v>1.71085637368747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.10821759259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>1885625.132864063</v>
+        <v>2017377.319657826</v>
       </c>
     </row>
     <row r="3">
@@ -16885,28 +16885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1151.911288570292</v>
+        <v>1247.63327828612</v>
       </c>
       <c r="AB3" t="n">
-        <v>1576.095843761319</v>
+        <v>1707.066893046659</v>
       </c>
       <c r="AC3" t="n">
-        <v>1425.675468497148</v>
+        <v>1544.146824657718</v>
       </c>
       <c r="AD3" t="n">
-        <v>1151911.288570292</v>
+        <v>1247633.27828612</v>
       </c>
       <c r="AE3" t="n">
-        <v>1576095.843761319</v>
+        <v>1707066.893046659</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.551160112591973e-07</v>
+        <v>1.998162426520017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.07291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1425675.468497148</v>
+        <v>1544146.824657718</v>
       </c>
     </row>
     <row r="4">
@@ -16991,28 +16991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1020.583130052437</v>
+        <v>1116.219778913694</v>
       </c>
       <c r="AB4" t="n">
-        <v>1396.406863487742</v>
+        <v>1527.261145650884</v>
       </c>
       <c r="AC4" t="n">
-        <v>1263.135752305813</v>
+        <v>1381.501485434444</v>
       </c>
       <c r="AD4" t="n">
-        <v>1020583.130052437</v>
+        <v>1116219.778913694</v>
       </c>
       <c r="AE4" t="n">
-        <v>1396406.863487742</v>
+        <v>1527261.145650884</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.003856159991163e-06</v>
+        <v>2.100129865774661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.19618055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1263135.752305813</v>
+        <v>1381501.485434444</v>
       </c>
     </row>
     <row r="5">
@@ -17097,28 +17097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>963.8975007510603</v>
+        <v>1059.619400958337</v>
       </c>
       <c r="AB5" t="n">
-        <v>1318.84708468413</v>
+        <v>1449.818011499922</v>
       </c>
       <c r="AC5" t="n">
-        <v>1192.978169935385</v>
+        <v>1311.449415314728</v>
       </c>
       <c r="AD5" t="n">
-        <v>963897.5007510603</v>
+        <v>1059619.400958337</v>
       </c>
       <c r="AE5" t="n">
-        <v>1318847.08468413</v>
+        <v>1449818.011499922</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.018830183653002e-06</v>
+        <v>2.131456459719479e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.94155092592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>1192978.169935385</v>
+        <v>1311449.415314728</v>
       </c>
     </row>
     <row r="6">
@@ -17203,28 +17203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>970.9922811693669</v>
+        <v>1066.714181376644</v>
       </c>
       <c r="AB6" t="n">
-        <v>1328.554476252079</v>
+        <v>1459.525403067871</v>
       </c>
       <c r="AC6" t="n">
-        <v>1201.759101676498</v>
+        <v>1320.230347055842</v>
       </c>
       <c r="AD6" t="n">
-        <v>970992.2811693669</v>
+        <v>1066714.181376644</v>
       </c>
       <c r="AE6" t="n">
-        <v>1328554.476252079</v>
+        <v>1459525.403067871</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.017994979145968e-06</v>
+        <v>2.129709159658812e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.95601851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>1201759.101676498</v>
+        <v>1320230.347055841</v>
       </c>
     </row>
   </sheetData>
@@ -31649,28 +31649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1197.226622455789</v>
+        <v>1299.880474484728</v>
       </c>
       <c r="AB2" t="n">
-        <v>1638.098282754891</v>
+        <v>1778.553811869214</v>
       </c>
       <c r="AC2" t="n">
-        <v>1481.760481734143</v>
+        <v>1608.811132280368</v>
       </c>
       <c r="AD2" t="n">
-        <v>1197226.622455789</v>
+        <v>1299880.474484728</v>
       </c>
       <c r="AE2" t="n">
-        <v>1638098.282754892</v>
+        <v>1778553.811869214</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.036002911414408e-07</v>
+        <v>1.964296706542127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.76273148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>1481760.481734143</v>
+        <v>1608811.132280368</v>
       </c>
     </row>
     <row r="3">
@@ -31755,28 +31755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>930.5267188240144</v>
+        <v>1022.744593449468</v>
       </c>
       <c r="AB3" t="n">
-        <v>1273.187708636551</v>
+        <v>1399.364273064594</v>
       </c>
       <c r="AC3" t="n">
-        <v>1151.67646065445</v>
+        <v>1265.810910863401</v>
       </c>
       <c r="AD3" t="n">
-        <v>930526.7188240144</v>
+        <v>1022744.593449468</v>
       </c>
       <c r="AE3" t="n">
-        <v>1273187.708636551</v>
+        <v>1399364.273064594</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.022274199068295e-06</v>
+        <v>2.222276666020375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.46817129629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>1151676.46065445</v>
+        <v>1265810.910863401</v>
       </c>
     </row>
     <row r="4">
@@ -31861,28 +31861,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>892.2435975374993</v>
+        <v>984.4614721629532</v>
       </c>
       <c r="AB4" t="n">
-        <v>1220.807053160229</v>
+        <v>1346.983617588272</v>
       </c>
       <c r="AC4" t="n">
-        <v>1104.294941420076</v>
+        <v>1218.429391629028</v>
       </c>
       <c r="AD4" t="n">
-        <v>892243.5975374994</v>
+        <v>984461.4721629532</v>
       </c>
       <c r="AE4" t="n">
-        <v>1220807.053160229</v>
+        <v>1346983.617588272</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.039368672545018e-06</v>
+        <v>2.259437585820414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.17881944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>1104294.941420076</v>
+        <v>1218429.391629028</v>
       </c>
     </row>
   </sheetData>
@@ -32158,28 +32158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>732.04262414678</v>
+        <v>817.5687688701245</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.613013798905</v>
+        <v>1118.633658156594</v>
       </c>
       <c r="AC2" t="n">
-        <v>906.0204735346304</v>
+        <v>1011.872831834328</v>
       </c>
       <c r="AD2" t="n">
-        <v>732042.62414678</v>
+        <v>817568.7688701245</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001613.013798905</v>
+        <v>1118633.658156594</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.054886767326881e-06</v>
+        <v>2.509076619550669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.16840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>906020.4735346304</v>
+        <v>1011872.831834328</v>
       </c>
     </row>
     <row r="3">
@@ -32264,28 +32264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>740.6959088389433</v>
+        <v>826.2220535622878</v>
       </c>
       <c r="AB3" t="n">
-        <v>1013.4528196707</v>
+        <v>1130.47346402839</v>
       </c>
       <c r="AC3" t="n">
-        <v>916.7303049512936</v>
+        <v>1022.582663250991</v>
       </c>
       <c r="AD3" t="n">
-        <v>740695.9088389433</v>
+        <v>826222.0535622878</v>
       </c>
       <c r="AE3" t="n">
-        <v>1013452.8196707</v>
+        <v>1130473.46402839</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.055151714398921e-06</v>
+        <v>2.509706803305423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.16550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>916730.3049512936</v>
+        <v>1022582.663250991</v>
       </c>
     </row>
   </sheetData>
@@ -32561,28 +32561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2599.496876648385</v>
+        <v>2749.299208563382</v>
       </c>
       <c r="AB2" t="n">
-        <v>3556.746308338893</v>
+        <v>3761.712467677461</v>
       </c>
       <c r="AC2" t="n">
-        <v>3217.295432595691</v>
+        <v>3402.699909358789</v>
       </c>
       <c r="AD2" t="n">
-        <v>2599496.876648385</v>
+        <v>2749299.208563382</v>
       </c>
       <c r="AE2" t="n">
-        <v>3556746.308338893</v>
+        <v>3761712.467677461</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.261082608065395e-07</v>
+        <v>1.215012038623262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3217295.432595691</v>
+        <v>3402699.909358789</v>
       </c>
     </row>
     <row r="3">
@@ -32667,28 +32667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1739.40007087408</v>
+        <v>1865.985208477627</v>
       </c>
       <c r="AB3" t="n">
-        <v>2379.923913885224</v>
+        <v>2553.12328369653</v>
       </c>
       <c r="AC3" t="n">
-        <v>2152.78731578821</v>
+        <v>2309.456780831566</v>
       </c>
       <c r="AD3" t="n">
-        <v>1739400.070874081</v>
+        <v>1865985.208477627</v>
       </c>
       <c r="AE3" t="n">
-        <v>2379923.913885224</v>
+        <v>2553123.283696529</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.034769815977046e-07</v>
+        <v>1.559209910663577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.94791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2152787.31578821</v>
+        <v>2309456.780831567</v>
       </c>
     </row>
     <row r="4">
@@ -32773,28 +32773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1526.448428847055</v>
+        <v>1630.072484211417</v>
       </c>
       <c r="AB4" t="n">
-        <v>2088.554082500451</v>
+        <v>2230.337086620648</v>
       </c>
       <c r="AC4" t="n">
-        <v>1889.225412170673</v>
+        <v>2017.476845371334</v>
       </c>
       <c r="AD4" t="n">
-        <v>1526448.428847055</v>
+        <v>1630072.484211417</v>
       </c>
       <c r="AE4" t="n">
-        <v>2088554.082500451</v>
+        <v>2230337.086620648</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.695055622295188e-07</v>
+        <v>1.687343534483707e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.43460648148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>1889225.412170673</v>
+        <v>2017476.845371334</v>
       </c>
     </row>
     <row r="5">
@@ -32879,28 +32879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1410.662680831317</v>
+        <v>1514.371987541699</v>
       </c>
       <c r="AB5" t="n">
-        <v>1930.130913958628</v>
+        <v>2072.030562731474</v>
       </c>
       <c r="AC5" t="n">
-        <v>1745.921928486167</v>
+        <v>1874.278873937541</v>
       </c>
       <c r="AD5" t="n">
-        <v>1410662.680831317</v>
+        <v>1514371.987541699</v>
       </c>
       <c r="AE5" t="n">
-        <v>1930130.913958628</v>
+        <v>2072030.562731474</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.041816456821325e-07</v>
+        <v>1.754635185919447e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.72569444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1745921.928486167</v>
+        <v>1874278.873937541</v>
       </c>
     </row>
     <row r="6">
@@ -32985,28 +32985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1341.802395173038</v>
+        <v>1445.341109682828</v>
       </c>
       <c r="AB6" t="n">
-        <v>1835.913233219572</v>
+        <v>1977.579470217571</v>
       </c>
       <c r="AC6" t="n">
-        <v>1660.696250961501</v>
+        <v>1788.842061130224</v>
       </c>
       <c r="AD6" t="n">
-        <v>1341802.395173038</v>
+        <v>1445341.109682828</v>
       </c>
       <c r="AE6" t="n">
-        <v>1835913.233219572</v>
+        <v>1977579.470217571</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.256187771456493e-07</v>
+        <v>1.796235615800646e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.31770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1660696.250961501</v>
+        <v>1788842.061130224</v>
       </c>
     </row>
     <row r="7">
@@ -33091,28 +33091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1289.720425315578</v>
+        <v>1381.906565233357</v>
       </c>
       <c r="AB7" t="n">
-        <v>1764.652384366248</v>
+        <v>1890.785527967215</v>
       </c>
       <c r="AC7" t="n">
-        <v>1596.236437507509</v>
+        <v>1710.331610912179</v>
       </c>
       <c r="AD7" t="n">
-        <v>1289720.425315578</v>
+        <v>1381906.565233357</v>
       </c>
       <c r="AE7" t="n">
-        <v>1764652.384366248</v>
+        <v>1890785.527967215</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.394670532848721e-07</v>
+        <v>1.8231092785146e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.06018518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>1596236.437507509</v>
+        <v>1710331.610912179</v>
       </c>
     </row>
     <row r="8">
@@ -33197,28 +33197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1226.149100519044</v>
+        <v>1329.773066374854</v>
       </c>
       <c r="AB8" t="n">
-        <v>1677.671293210716</v>
+        <v>1819.454174861364</v>
       </c>
       <c r="AC8" t="n">
-        <v>1517.556699613133</v>
+        <v>1645.808022032568</v>
       </c>
       <c r="AD8" t="n">
-        <v>1226149.100519044</v>
+        <v>1329773.066374854</v>
       </c>
       <c r="AE8" t="n">
-        <v>1677671.293210716</v>
+        <v>1819454.174861365</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.508226397190347e-07</v>
+        <v>1.845145681940041e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.85763888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1517556.699613133</v>
+        <v>1645808.022032568</v>
       </c>
     </row>
     <row r="9">
@@ -33303,28 +33303,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1185.361618045444</v>
+        <v>1288.985583901254</v>
       </c>
       <c r="AB9" t="n">
-        <v>1621.864060273607</v>
+        <v>1763.646941924255</v>
       </c>
       <c r="AC9" t="n">
-        <v>1467.075630661599</v>
+        <v>1595.326953081033</v>
       </c>
       <c r="AD9" t="n">
-        <v>1185361.618045444</v>
+        <v>1288985.583901254</v>
       </c>
       <c r="AE9" t="n">
-        <v>1621864.060273607</v>
+        <v>1763646.941924255</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.580791364159875e-07</v>
+        <v>1.859227481202153e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.73032407407407</v>
       </c>
       <c r="AH9" t="n">
-        <v>1467075.630661599</v>
+        <v>1595326.953081033</v>
       </c>
     </row>
     <row r="10">
@@ -33409,28 +33409,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1184.172972916319</v>
+        <v>1287.79693877213</v>
       </c>
       <c r="AB10" t="n">
-        <v>1620.237703568616</v>
+        <v>1762.020585219265</v>
       </c>
       <c r="AC10" t="n">
-        <v>1465.604491157926</v>
+        <v>1593.855813577361</v>
       </c>
       <c r="AD10" t="n">
-        <v>1184172.972916319</v>
+        <v>1287796.93877213</v>
       </c>
       <c r="AE10" t="n">
-        <v>1620237.703568616</v>
+        <v>1762020.585219265</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.582453157296583e-07</v>
+        <v>1.859549965154721e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.72743055555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1465604.491157926</v>
+        <v>1593855.813577361</v>
       </c>
     </row>
   </sheetData>
@@ -33706,28 +33706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3531.185860992119</v>
+        <v>3710.817729353394</v>
       </c>
       <c r="AB2" t="n">
-        <v>4831.524279935133</v>
+        <v>5077.304527025771</v>
       </c>
       <c r="AC2" t="n">
-        <v>4370.410383744857</v>
+        <v>4592.733709007898</v>
       </c>
       <c r="AD2" t="n">
-        <v>3531185.860992119</v>
+        <v>3710817.729353394</v>
       </c>
       <c r="AE2" t="n">
-        <v>4831524.279935133</v>
+        <v>5077304.52702577</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.288747551677678e-07</v>
+        <v>9.923764808402749e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.20428240740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>4370410.383744856</v>
+        <v>4592733.709007898</v>
       </c>
     </row>
     <row r="3">
@@ -33812,28 +33812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2163.652026073647</v>
+        <v>2295.336571618427</v>
       </c>
       <c r="AB3" t="n">
-        <v>2960.404155664578</v>
+        <v>3140.58076039126</v>
       </c>
       <c r="AC3" t="n">
-        <v>2677.867338001278</v>
+        <v>2840.84814045218</v>
       </c>
       <c r="AD3" t="n">
-        <v>2163652.026073648</v>
+        <v>2295336.571618427</v>
       </c>
       <c r="AE3" t="n">
-        <v>2960404.155664578</v>
+        <v>3140580.76039126</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.241868998144031e-07</v>
+        <v>1.358858671332258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2677867.338001278</v>
+        <v>2840848.140452181</v>
       </c>
     </row>
     <row r="4">
@@ -33918,28 +33918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1854.965421382987</v>
+        <v>1974.663136223639</v>
       </c>
       <c r="AB4" t="n">
-        <v>2538.045524834948</v>
+        <v>2701.821218970415</v>
       </c>
       <c r="AC4" t="n">
-        <v>2295.818022113967</v>
+        <v>2443.963193861775</v>
       </c>
       <c r="AD4" t="n">
-        <v>1854965.421382986</v>
+        <v>1974663.136223639</v>
       </c>
       <c r="AE4" t="n">
-        <v>2538045.524834948</v>
+        <v>2701821.218970415</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.987567456934272e-07</v>
+        <v>1.498780950675603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.33738425925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>2295818.022113967</v>
+        <v>2443963.193861775</v>
       </c>
     </row>
     <row r="5">
@@ -34024,28 +34024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1704.141251260533</v>
+        <v>1811.937476251633</v>
       </c>
       <c r="AB5" t="n">
-        <v>2331.68124138063</v>
+        <v>2479.172792047263</v>
       </c>
       <c r="AC5" t="n">
-        <v>2109.148856238438</v>
+        <v>2242.564020315139</v>
       </c>
       <c r="AD5" t="n">
-        <v>1704141.251260533</v>
+        <v>1811937.476251633</v>
       </c>
       <c r="AE5" t="n">
-        <v>2331681.24138063</v>
+        <v>2479172.792047263</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.397514784315021e-07</v>
+        <v>1.575703148625273e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.39409722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2109148.856238438</v>
+        <v>2242564.020315139</v>
       </c>
     </row>
     <row r="6">
@@ -34130,28 +34130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1611.921006772252</v>
+        <v>1731.618632104353</v>
       </c>
       <c r="AB6" t="n">
-        <v>2205.501434401714</v>
+        <v>2369.277006067633</v>
       </c>
       <c r="AC6" t="n">
-        <v>1995.011472943119</v>
+        <v>2143.156533909701</v>
       </c>
       <c r="AD6" t="n">
-        <v>1611921.006772252</v>
+        <v>1731618.632104353</v>
       </c>
       <c r="AE6" t="n">
-        <v>2205501.434401714</v>
+        <v>2369277.006067633</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.640387224364814e-07</v>
+        <v>1.621275544545976e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.87615740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1995011.472943119</v>
+        <v>2143156.5339097</v>
       </c>
     </row>
     <row r="7">
@@ -34236,28 +34236,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1551.87720613632</v>
+        <v>1659.75868247344</v>
       </c>
       <c r="AB7" t="n">
-        <v>2123.346857426102</v>
+        <v>2270.955052745385</v>
       </c>
       <c r="AC7" t="n">
-        <v>1920.697613489386</v>
+        <v>2054.218289816799</v>
       </c>
       <c r="AD7" t="n">
-        <v>1551877.20613632</v>
+        <v>1659758.68247344</v>
       </c>
       <c r="AE7" t="n">
-        <v>2123346.857426102</v>
+        <v>2270955.052745385</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.813333753103568e-07</v>
+        <v>1.653727096805993e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1920697.613489386</v>
+        <v>2054218.289816799</v>
       </c>
     </row>
     <row r="8">
@@ -34342,28 +34342,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1503.006069037976</v>
+        <v>1610.716953174503</v>
       </c>
       <c r="AB8" t="n">
-        <v>2056.479211605744</v>
+        <v>2203.85399515018</v>
       </c>
       <c r="AC8" t="n">
-        <v>1860.211721936792</v>
+        <v>1993.521262981554</v>
       </c>
       <c r="AD8" t="n">
-        <v>1503006.069037976</v>
+        <v>1610716.953174504</v>
       </c>
       <c r="AE8" t="n">
-        <v>2056479.211605744</v>
+        <v>2203853.99515018</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.938773364997417e-07</v>
+        <v>1.677264488105697e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.28009259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>1860211.721936792</v>
+        <v>1993521.262981554</v>
       </c>
     </row>
     <row r="9">
@@ -34448,28 +34448,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1460.353258997681</v>
+        <v>1556.247994139228</v>
       </c>
       <c r="AB9" t="n">
-        <v>1998.11975519944</v>
+        <v>2129.327162397239</v>
       </c>
       <c r="AC9" t="n">
-        <v>1807.422010141894</v>
+        <v>1926.107166547489</v>
       </c>
       <c r="AD9" t="n">
-        <v>1460353.258997682</v>
+        <v>1556247.994139228</v>
       </c>
       <c r="AE9" t="n">
-        <v>1998119.75519944</v>
+        <v>2129327.162397239</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.037523697764913e-07</v>
+        <v>1.695793923809719e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.08912037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1807422.010141894</v>
+        <v>1926107.166547488</v>
       </c>
     </row>
     <row r="10">
@@ -34554,28 +34554,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1411.70437999721</v>
+        <v>1519.500515479759</v>
       </c>
       <c r="AB10" t="n">
-        <v>1931.556212713926</v>
+        <v>2079.047640911012</v>
       </c>
       <c r="AC10" t="n">
-        <v>1747.21119872868</v>
+        <v>1880.626252024155</v>
       </c>
       <c r="AD10" t="n">
-        <v>1411704.37999721</v>
+        <v>1519500.515479759</v>
       </c>
       <c r="AE10" t="n">
-        <v>1931556.212713927</v>
+        <v>2079047.640911012</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.119192891891546e-07</v>
+        <v>1.711118267932504e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.93576388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1747211.19872868</v>
+        <v>1880626.252024155</v>
       </c>
     </row>
     <row r="11">
@@ -34660,28 +34660,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1375.523313048043</v>
+        <v>1483.319448530592</v>
       </c>
       <c r="AB11" t="n">
-        <v>1882.051680718057</v>
+        <v>2029.543108915142</v>
       </c>
       <c r="AC11" t="n">
-        <v>1702.431309786449</v>
+        <v>1835.846363081924</v>
       </c>
       <c r="AD11" t="n">
-        <v>1375523.313048043</v>
+        <v>1483319.448530592</v>
       </c>
       <c r="AE11" t="n">
-        <v>1882051.680718057</v>
+        <v>2029543.108915142</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.180578233882154e-07</v>
+        <v>1.722636565802572e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.82291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1702431.309786449</v>
+        <v>1835846.363081924</v>
       </c>
     </row>
     <row r="12">
@@ -34766,28 +34766,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1341.465511942727</v>
+        <v>1449.261647425276</v>
       </c>
       <c r="AB12" t="n">
-        <v>1835.452294721621</v>
+        <v>1982.943722918706</v>
       </c>
       <c r="AC12" t="n">
-        <v>1660.279303786864</v>
+        <v>1793.694357082339</v>
       </c>
       <c r="AD12" t="n">
-        <v>1341465.511942727</v>
+        <v>1449261.647425276</v>
       </c>
       <c r="AE12" t="n">
-        <v>1835452.294721622</v>
+        <v>1982943.722918706</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.228618936309587e-07</v>
+        <v>1.7316508858748e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.73611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1660279.303786864</v>
+        <v>1793694.357082339</v>
       </c>
     </row>
     <row r="13">
@@ -34872,28 +34872,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1323.375287432861</v>
+        <v>1431.171422915409</v>
       </c>
       <c r="AB13" t="n">
-        <v>1810.700451462843</v>
+        <v>1958.191879659928</v>
       </c>
       <c r="AC13" t="n">
-        <v>1637.889741709273</v>
+        <v>1771.304795004748</v>
       </c>
       <c r="AD13" t="n">
-        <v>1323375.287432861</v>
+        <v>1431171.42291541</v>
       </c>
       <c r="AE13" t="n">
-        <v>1810700.451462843</v>
+        <v>1958191.879659928</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.253173073105828e-07</v>
+        <v>1.736258205022826e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1637889.741709274</v>
+        <v>1771304.795004748</v>
       </c>
     </row>
     <row r="14">
@@ -34978,28 +34978,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1318.838262405602</v>
+        <v>1426.63439788815</v>
       </c>
       <c r="AB14" t="n">
-        <v>1804.492693661129</v>
+        <v>1951.984121858214</v>
       </c>
       <c r="AC14" t="n">
-        <v>1632.274443599512</v>
+        <v>1765.689496894987</v>
       </c>
       <c r="AD14" t="n">
-        <v>1318838.262405602</v>
+        <v>1426634.39788815</v>
       </c>
       <c r="AE14" t="n">
-        <v>1804492.693661129</v>
+        <v>1951984.121858214</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.259578500096152e-07</v>
+        <v>1.73746011436579e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.68113425925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>1632274.443599512</v>
+        <v>1765689.496894987</v>
       </c>
     </row>
     <row r="15">
@@ -35084,28 +35084,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1324.518748191895</v>
+        <v>1432.314883674443</v>
       </c>
       <c r="AB15" t="n">
-        <v>1812.264984919281</v>
+        <v>1959.756413116366</v>
       </c>
       <c r="AC15" t="n">
-        <v>1639.304958288466</v>
+        <v>1772.720011583941</v>
       </c>
       <c r="AD15" t="n">
-        <v>1324518.748191895</v>
+        <v>1432314.883674443</v>
       </c>
       <c r="AE15" t="n">
-        <v>1812264.984919281</v>
+        <v>1959756.413116366</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.26171364242626e-07</v>
+        <v>1.737860750813445e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.67534722222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>1639304.958288466</v>
+        <v>1772720.011583941</v>
       </c>
     </row>
   </sheetData>
@@ -35381,28 +35381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>663.5883718489232</v>
+        <v>755.0197092806649</v>
       </c>
       <c r="AB2" t="n">
-        <v>907.9508858165057</v>
+        <v>1033.05127535654</v>
       </c>
       <c r="AC2" t="n">
-        <v>821.2973275912492</v>
+        <v>934.4583115330826</v>
       </c>
       <c r="AD2" t="n">
-        <v>663588.3718489232</v>
+        <v>755019.7092806649</v>
       </c>
       <c r="AE2" t="n">
-        <v>907950.8858165056</v>
+        <v>1033051.27535654</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.027933157047595e-06</v>
+        <v>2.570782816410163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.30555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>821297.3275912493</v>
+        <v>934458.3115330825</v>
       </c>
     </row>
   </sheetData>
@@ -35678,28 +35678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1678.310844521786</v>
+        <v>1807.907526504758</v>
       </c>
       <c r="AB2" t="n">
-        <v>2296.338939323557</v>
+        <v>2473.658837014753</v>
       </c>
       <c r="AC2" t="n">
-        <v>2077.179573886459</v>
+        <v>2237.576309412048</v>
       </c>
       <c r="AD2" t="n">
-        <v>1678310.844521786</v>
+        <v>1807907.526504758</v>
       </c>
       <c r="AE2" t="n">
-        <v>2296338.939323557</v>
+        <v>2473658.837014753</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.805858434579747e-07</v>
+        <v>1.607447515075004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.79108796296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>2077179.573886459</v>
+        <v>2237576.309412048</v>
       </c>
     </row>
     <row r="3">
@@ -35784,28 +35784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1250.82211502944</v>
+        <v>1348.062386452505</v>
       </c>
       <c r="AB3" t="n">
-        <v>1711.430000160418</v>
+        <v>1844.478429459463</v>
       </c>
       <c r="AC3" t="n">
-        <v>1548.093522952198</v>
+        <v>1668.443996893586</v>
       </c>
       <c r="AD3" t="n">
-        <v>1250822.11502944</v>
+        <v>1348062.386452505</v>
       </c>
       <c r="AE3" t="n">
-        <v>1711430.000160418</v>
+        <v>1844478.429459463</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.256156126860832e-07</v>
+        <v>1.906104919781288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.37673611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1548093.522952198</v>
+        <v>1668443.996893586</v>
       </c>
     </row>
     <row r="4">
@@ -35890,28 +35890,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1109.853425116305</v>
+        <v>1207.008355684799</v>
       </c>
       <c r="AB4" t="n">
-        <v>1518.55041952159</v>
+        <v>1651.482081698437</v>
       </c>
       <c r="AC4" t="n">
-        <v>1373.622098781349</v>
+        <v>1493.866949690797</v>
       </c>
       <c r="AD4" t="n">
-        <v>1109853.425116305</v>
+        <v>1207008.355684799</v>
       </c>
       <c r="AE4" t="n">
-        <v>1518550.41952159</v>
+        <v>1651482.081698437</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.774077597026878e-07</v>
+        <v>2.012759631393058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.40451388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1373622.098781348</v>
+        <v>1493866.949690797</v>
       </c>
     </row>
     <row r="5">
@@ -35996,28 +35996,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1018.647834821425</v>
+        <v>1115.88801673594</v>
       </c>
       <c r="AB5" t="n">
-        <v>1393.758907173471</v>
+        <v>1526.807214002968</v>
       </c>
       <c r="AC5" t="n">
-        <v>1260.740513225746</v>
+        <v>1381.090876385907</v>
       </c>
       <c r="AD5" t="n">
-        <v>1018647.834821425</v>
+        <v>1115888.01673594</v>
       </c>
       <c r="AE5" t="n">
-        <v>1393758.907173471</v>
+        <v>1526807.214002968</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.003744742521574e-06</v>
+        <v>2.066994944448759e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.94733796296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>1260740.513225746</v>
+        <v>1381090.876385907</v>
       </c>
     </row>
     <row r="6">
@@ -36102,28 +36102,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1004.601565606221</v>
+        <v>1101.841747520736</v>
       </c>
       <c r="AB6" t="n">
-        <v>1374.540181955565</v>
+        <v>1507.588488785062</v>
       </c>
       <c r="AC6" t="n">
-        <v>1243.355996168987</v>
+        <v>1363.706359329148</v>
       </c>
       <c r="AD6" t="n">
-        <v>1004601.565606221</v>
+        <v>1101841.747520736</v>
       </c>
       <c r="AE6" t="n">
-        <v>1374540.181955565</v>
+        <v>1507588.488785062</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.007624744454713e-06</v>
+        <v>2.074984968247144e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.88078703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1243355.996168987</v>
+        <v>1363706.359329148</v>
       </c>
     </row>
   </sheetData>
@@ -36399,28 +36399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2202.264743471187</v>
+        <v>2348.4910570361</v>
       </c>
       <c r="AB2" t="n">
-        <v>3013.235779080931</v>
+        <v>3213.309072350119</v>
       </c>
       <c r="AC2" t="n">
-        <v>2725.65678542831</v>
+        <v>2906.63536439251</v>
       </c>
       <c r="AD2" t="n">
-        <v>2202264.743471187</v>
+        <v>2348491.0570361</v>
       </c>
       <c r="AE2" t="n">
-        <v>3013235.779080931</v>
+        <v>3213309.072350119</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.824280642734179e-07</v>
+        <v>1.352015638373206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.99884259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>2725656.78542831</v>
+        <v>2906635.36439251</v>
       </c>
     </row>
     <row r="3">
@@ -36505,28 +36505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1550.109660185439</v>
+        <v>1662.552141272582</v>
       </c>
       <c r="AB3" t="n">
-        <v>2120.928423077482</v>
+        <v>2274.777186313075</v>
       </c>
       <c r="AC3" t="n">
-        <v>1918.509991120704</v>
+        <v>2057.675644321187</v>
       </c>
       <c r="AD3" t="n">
-        <v>1550109.660185439</v>
+        <v>1662552.141272582</v>
       </c>
       <c r="AE3" t="n">
-        <v>2120928.423077482</v>
+        <v>2274777.186313075</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.478703162325453e-07</v>
+        <v>1.6797871993722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.31712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1918509.991120704</v>
+        <v>2057675.644321187</v>
       </c>
     </row>
     <row r="4">
@@ -36611,28 +36611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1369.874816703088</v>
+        <v>1471.14133131603</v>
       </c>
       <c r="AB4" t="n">
-        <v>1874.323158824818</v>
+        <v>2012.880471681564</v>
       </c>
       <c r="AC4" t="n">
-        <v>1695.440387175652</v>
+        <v>1820.77398455976</v>
       </c>
       <c r="AD4" t="n">
-        <v>1369874.816703088</v>
+        <v>1471141.33131603</v>
       </c>
       <c r="AE4" t="n">
-        <v>1874323.158824818</v>
+        <v>2012880.471681564</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.086588822962137e-07</v>
+        <v>1.800220540635601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.02372685185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1695440.387175652</v>
+        <v>1820773.98455976</v>
       </c>
     </row>
     <row r="5">
@@ -36717,28 +36717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1264.436145319038</v>
+        <v>1365.617319077408</v>
       </c>
       <c r="AB5" t="n">
-        <v>1730.057317011274</v>
+        <v>1868.497862745822</v>
       </c>
       <c r="AC5" t="n">
-        <v>1564.943074826412</v>
+        <v>1690.171049178581</v>
       </c>
       <c r="AD5" t="n">
-        <v>1264436.145319038</v>
+        <v>1365617.319077407</v>
       </c>
       <c r="AE5" t="n">
-        <v>1730057.317011274</v>
+        <v>1868497.862745822</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.409209704305631e-07</v>
+        <v>1.864137677060311e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.40451388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1564943.074826412</v>
+        <v>1690171.049178581</v>
       </c>
     </row>
     <row r="6">
@@ -36823,28 +36823,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1197.760449204486</v>
+        <v>1287.850997343226</v>
       </c>
       <c r="AB6" t="n">
-        <v>1638.828688063234</v>
+        <v>1762.094550541134</v>
       </c>
       <c r="AC6" t="n">
-        <v>1482.421178184988</v>
+        <v>1593.922719752721</v>
       </c>
       <c r="AD6" t="n">
-        <v>1197760.449204486</v>
+        <v>1287850.997343226</v>
       </c>
       <c r="AE6" t="n">
-        <v>1638828.688063234</v>
+        <v>1762094.550541134</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.601650230019291e-07</v>
+        <v>1.902263688261015e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.05729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1482421.178184988</v>
+        <v>1593922.719752721</v>
       </c>
     </row>
     <row r="7">
@@ -36929,28 +36929,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1133.267614948759</v>
+        <v>1234.534040053149</v>
       </c>
       <c r="AB7" t="n">
-        <v>1550.586747011506</v>
+        <v>1689.143937398704</v>
       </c>
       <c r="AC7" t="n">
-        <v>1402.600924138895</v>
+        <v>1527.934410741777</v>
       </c>
       <c r="AD7" t="n">
-        <v>1133267.614948759</v>
+        <v>1234534.040053149</v>
       </c>
       <c r="AE7" t="n">
-        <v>1550586.747011506</v>
+        <v>1689143.937398704</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.73069858255669e-07</v>
+        <v>1.927830542830899e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.83159722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1402600.924138895</v>
+        <v>1527934.410741777</v>
       </c>
     </row>
     <row r="8">
@@ -37035,28 +37035,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1113.903437170188</v>
+        <v>1215.169862274578</v>
       </c>
       <c r="AB8" t="n">
-        <v>1524.091824687635</v>
+        <v>1662.649015074833</v>
       </c>
       <c r="AC8" t="n">
-        <v>1378.634640015757</v>
+        <v>1503.968126618639</v>
       </c>
       <c r="AD8" t="n">
-        <v>1113903.437170188</v>
+        <v>1215169.862274579</v>
       </c>
       <c r="AE8" t="n">
-        <v>1524091.824687635</v>
+        <v>1662649.015074833</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.770884692338071e-07</v>
+        <v>1.935792151052222e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.76215277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1378634.640015757</v>
+        <v>1503968.126618639</v>
       </c>
     </row>
     <row r="9">
@@ -37141,28 +37141,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1119.739054803921</v>
+        <v>1221.005479908311</v>
       </c>
       <c r="AB9" t="n">
-        <v>1532.076374183388</v>
+        <v>1670.633564570586</v>
       </c>
       <c r="AC9" t="n">
-        <v>1385.857155314021</v>
+        <v>1511.190641916903</v>
       </c>
       <c r="AD9" t="n">
-        <v>1119739.054803921</v>
+        <v>1221005.479908311</v>
       </c>
       <c r="AE9" t="n">
-        <v>1532076.374183388</v>
+        <v>1670633.564570586</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.769752689245638e-07</v>
+        <v>1.935567880398101e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.76215277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1385857.155314021</v>
+        <v>1511190.641916903</v>
       </c>
     </row>
   </sheetData>
